--- a/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="生成道具_3_produceItem" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">生成道具_3_produceItem!$A$6:$M$29</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2699,11 +2699,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5623,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="AA2" s="90">
-        <f t="shared" ref="AA2:AA21" ca="1" si="2">Z2+IF(I2="","0",VLOOKUP(I2,$C$2:$AA$88,26,FALSE)*K2)+IF(M2="","0",VLOOKUP(M2,$C$2:$AA$88,26,FALSE)*O2)+IF(Q2="","0",VLOOKUP(Q2,$C$2:$AA$88,26,FALSE)*S2)+IF(U2="","0",VLOOKUP(U2,$C$2:$AA$88,26,FALSE)*W2)</f>
+        <f t="shared" ref="AA2:AA21" si="2">Z2+IF(I2="","0",VLOOKUP(I2,$C$2:$AA$88,26,FALSE)*K2)+IF(M2="","0",VLOOKUP(M2,$C$2:$AA$88,26,FALSE)*O2)+IF(Q2="","0",VLOOKUP(Q2,$C$2:$AA$88,26,FALSE)*S2)+IF(U2="","0",VLOOKUP(U2,$C$2:$AA$88,26,FALSE)*W2)</f>
         <v>1</v>
       </c>
       <c r="AB2" s="81">
@@ -5799,11 +5799,11 @@
         <v>2001</v>
       </c>
       <c r="AL2" s="82" t="str">
-        <f ca="1">VLOOKUP(AK2,$B$2:$C$88,2,FALSE)</f>
+        <f>VLOOKUP(AK2,$B$2:$C$88,2,FALSE)</f>
         <v>水</v>
       </c>
       <c r="AM2" s="82">
-        <f ca="1">VLOOKUP(AK2,$B$2:$E$88,4,FALSE)</f>
+        <f>VLOOKUP(AK2,$B$2:$E$88,4,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="AA3" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB3" s="81">
@@ -5873,11 +5873,11 @@
         <v>2002</v>
       </c>
       <c r="AL3" s="82" t="str">
-        <f t="shared" ref="AL3:AL66" ca="1" si="4">VLOOKUP(AK3,$B$2:$C$88,2,FALSE)</f>
+        <f t="shared" ref="AL3:AL66" si="4">VLOOKUP(AK3,$B$2:$C$88,2,FALSE)</f>
         <v>冰块</v>
       </c>
       <c r="AM3" s="82">
-        <f t="shared" ref="AM3:AM66" ca="1" si="5">VLOOKUP(AK3,$B$2:$E$88,4,FALSE)</f>
+        <f t="shared" ref="AM3:AM66" si="5">VLOOKUP(AK3,$B$2:$E$88,4,FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
         <v>3</v>
       </c>
       <c r="AA4" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB4" s="81">
@@ -5947,11 +5947,11 @@
         <v>2003</v>
       </c>
       <c r="AL4" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>牛奶</v>
       </c>
       <c r="AM4" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB5" s="81">
@@ -6021,11 +6021,11 @@
         <v>2004</v>
       </c>
       <c r="AL5" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>酸奶</v>
       </c>
       <c r="AM5" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
         <v>7</v>
       </c>
       <c r="AA6" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB6" s="81">
@@ -6095,11 +6095,11 @@
         <v>2005</v>
       </c>
       <c r="AL6" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>糖</v>
       </c>
       <c r="AM6" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="AA7" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AB7" s="81">
@@ -6169,11 +6169,11 @@
         <v>2006</v>
       </c>
       <c r="AL7" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>甜奶油</v>
       </c>
       <c r="AM7" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
         <v>13</v>
       </c>
       <c r="AA8" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AB8" s="81">
@@ -6243,11 +6243,11 @@
         <v>2007</v>
       </c>
       <c r="AL8" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>橙子</v>
       </c>
       <c r="AM8" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6303,7 +6303,7 @@
         <v>16</v>
       </c>
       <c r="AA9" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AB9" s="81">
@@ -6317,11 +6317,11 @@
         <v>2008</v>
       </c>
       <c r="AL9" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>橙汁</v>
       </c>
       <c r="AM9" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
         <v>18</v>
       </c>
       <c r="AA10" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AB10" s="81">
@@ -6391,11 +6391,11 @@
         <v>2009</v>
       </c>
       <c r="AL10" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>奶酪</v>
       </c>
       <c r="AM10" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
         <v>20</v>
       </c>
       <c r="AA11" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB11" s="81">
@@ -6465,11 +6465,11 @@
         <v>2010</v>
       </c>
       <c r="AL11" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>鸡蛋</v>
       </c>
       <c r="AM11" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
         <v>24</v>
       </c>
       <c r="AA12" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AB12" s="81">
@@ -6539,12 +6539,12 @@
         <v>2011</v>
       </c>
       <c r="AL12" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>慕斯</v>
       </c>
       <c r="AM12" s="82">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -6599,7 +6599,7 @@
         <v>29</v>
       </c>
       <c r="AA13" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="AB13" s="81">
@@ -6613,11 +6613,11 @@
         <v>2012</v>
       </c>
       <c r="AL13" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>焦糖布丁</v>
       </c>
       <c r="AM13" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
         <v>21</v>
       </c>
       <c r="AA14" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AB14" s="81">
@@ -6687,11 +6687,11 @@
         <v>2013</v>
       </c>
       <c r="AL14" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>蛋糕</v>
       </c>
       <c r="AM14" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
         <v>28</v>
       </c>
       <c r="AA15" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AB15" s="81">
@@ -6761,11 +6761,11 @@
         <v>2014</v>
       </c>
       <c r="AL15" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>面粉</v>
       </c>
       <c r="AM15" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
         <v>36</v>
       </c>
       <c r="AA16" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="AB16" s="81">
@@ -6835,11 +6835,11 @@
         <v>2015</v>
       </c>
       <c r="AL16" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>面包</v>
       </c>
       <c r="AM16" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
         <v>57</v>
       </c>
       <c r="AA17" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="AB17" s="81">
@@ -6909,11 +6909,11 @@
         <v>2016</v>
       </c>
       <c r="AL17" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>奶油吐司</v>
       </c>
       <c r="AM17" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
         <v>2</v>
       </c>
       <c r="AA18" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB18" s="81">
@@ -6981,26 +6981,26 @@
         <v>2007</v>
       </c>
       <c r="AF18" s="82" t="str">
-        <f t="shared" ref="AF18:AF81" ca="1" si="6">VLOOKUP(AE18,$B$2:$C$88,2,FALSE)</f>
+        <f t="shared" ref="AF18:AF81" si="6">VLOOKUP(AE18,$B$2:$C$88,2,FALSE)</f>
         <v>橙子</v>
       </c>
       <c r="AG18" s="82">
-        <f ca="1">VLOOKUP(AE18,$B$2:$E$88,4,FALSE)</f>
+        <f>VLOOKUP(AE18,$B$2:$E$88,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="AH18" s="82">
-        <f ca="1">VLOOKUP(AE18,$B$2:$AA$88,26,FALSE)</f>
+        <f>VLOOKUP(AE18,$B$2:$AA$88,26,FALSE)</f>
         <v>2</v>
       </c>
       <c r="AK18" s="91">
         <v>2017</v>
       </c>
       <c r="AL18" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>棒棒糖</v>
       </c>
       <c r="AM18" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
         <v>7</v>
       </c>
       <c r="AA19" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB19" s="81">
@@ -7068,26 +7068,26 @@
         <v>2021</v>
       </c>
       <c r="AF19" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>草莓</v>
       </c>
       <c r="AG19" s="82">
-        <f t="shared" ref="AG19:AG82" ca="1" si="7">VLOOKUP(AE19,$B$2:$E$88,4,FALSE)</f>
+        <f t="shared" ref="AG19:AG82" si="7">VLOOKUP(AE19,$B$2:$E$88,4,FALSE)</f>
         <v>10</v>
       </c>
       <c r="AH19" s="82">
-        <f t="shared" ref="AH19:AH82" ca="1" si="8">VLOOKUP(AE19,$B$2:$AA$88,26,FALSE)</f>
+        <f t="shared" ref="AH19:AH82" si="8">VLOOKUP(AE19,$B$2:$AA$88,26,FALSE)</f>
         <v>7</v>
       </c>
       <c r="AK19" s="91">
         <v>2018</v>
       </c>
       <c r="AL19" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>可可粉</v>
       </c>
       <c r="AM19" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
         <v>11</v>
       </c>
       <c r="AA20" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AB20" s="81">
@@ -7155,26 +7155,26 @@
         <v>2029</v>
       </c>
       <c r="AF20" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>香蕉</v>
       </c>
       <c r="AG20" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AH20" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="AK20" s="91">
         <v>2019</v>
       </c>
       <c r="AL20" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>热巧克力</v>
       </c>
       <c r="AM20" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
         <v>15</v>
       </c>
       <c r="AA21" s="90">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AB21" s="81">
@@ -7242,26 +7242,26 @@
         <v>2045</v>
       </c>
       <c r="AF21" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>苹果</v>
       </c>
       <c r="AG21" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AH21" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AK21" s="91">
         <v>2020</v>
       </c>
       <c r="AL21" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>巧克力曲奇</v>
       </c>
       <c r="AM21" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -7294,49 +7294,49 @@
         <v>136</v>
       </c>
       <c r="J22" s="84" t="str">
-        <f t="shared" ref="J22:J85" ca="1" si="9">IF(E22&lt;VLOOKUP(I22,$C$1:$E$88,3,FALSE),"出错了","正确")</f>
+        <f t="shared" ref="J22:J85" si="9">IF(E22&lt;VLOOKUP(I22,$C$1:$E$88,3,FALSE),"出错了","正确")</f>
         <v>正确</v>
       </c>
       <c r="K22" s="75">
         <v>1</v>
       </c>
       <c r="L22" s="77">
-        <f t="shared" ref="L22:L85" ca="1" si="10">VLOOKUP(I22,$C$1:$Y$88,23,FALSE)*K22</f>
+        <f t="shared" ref="L22:L85" si="10">VLOOKUP(I22,$C$1:$Y$88,23,FALSE)*K22</f>
         <v>6</v>
       </c>
       <c r="M22" s="84" t="s">
         <v>137</v>
       </c>
       <c r="N22" s="84" t="str">
-        <f t="shared" ref="N22:N85" ca="1" si="11">IF(M22="","",IF($E22&lt;VLOOKUP(M22,$C$2:$E$88,3,FALSE),"出错了","正确"))</f>
+        <f t="shared" ref="N22:N85" si="11">IF(M22="","",IF($E22&lt;VLOOKUP(M22,$C$2:$E$88,3,FALSE),"出错了","正确"))</f>
         <v>正确</v>
       </c>
       <c r="O22" s="75">
         <v>1</v>
       </c>
       <c r="P22" s="77">
-        <f t="shared" ref="P22:P85" ca="1" si="12">IF(M22="","0",VLOOKUP($M22,$C$1:$Y$88,23,FALSE)*$O22)</f>
+        <f t="shared" ref="P22:P85" si="12">IF(M22="","0",VLOOKUP($M22,$C$1:$Y$88,23,FALSE)*$O22)</f>
         <v>9</v>
       </c>
       <c r="Q22" s="84"/>
       <c r="R22" s="84" t="str">
-        <f t="shared" ref="R22:R85" ca="1" si="13">IF(Q22="","",IF($E22&lt;VLOOKUP(Q22,$C$2:$E$88,3,FALSE),"出错了","正确"))</f>
+        <f t="shared" ref="R22:R85" si="13">IF(Q22="","",IF($E22&lt;VLOOKUP(Q22,$C$2:$E$88,3,FALSE),"出错了","正确"))</f>
         <v/>
       </c>
       <c r="S22" s="75"/>
       <c r="T22" s="77" t="str">
-        <f t="shared" ref="T22:T85" ca="1" si="14">IF(Q22="","0",VLOOKUP($Q22,$C$1:$Y$88,23,FALSE)*$S22)</f>
+        <f t="shared" ref="T22:T85" si="14">IF(Q22="","0",VLOOKUP($Q22,$C$1:$Y$88,23,FALSE)*$S22)</f>
         <v>0</v>
       </c>
       <c r="U22" s="84"/>
       <c r="V22" s="84"/>
       <c r="W22" s="75"/>
       <c r="X22" s="77" t="str">
-        <f ca="1">IF(U22="","0",VLOOKUP($U22,$C$1:$Y$88,23,FALSE)*$W22)</f>
+        <f>IF(U22="","0",VLOOKUP($U22,$C$1:$Y$88,23,FALSE)*$W22)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="88">
-        <f ca="1">ROUND((G22*60*H22)*1.1,0)+L22*K22+P22*O22+T22*S22+X22*W22</f>
+        <f>ROUND((G22*60*H22)*1.1,0)+L22*K22+P22*O22+T22*S22+X22*W22</f>
         <v>23</v>
       </c>
       <c r="Z22" s="89">
@@ -7344,7 +7344,7 @@
         <v>9</v>
       </c>
       <c r="AA22" s="90">
-        <f t="shared" ref="AA22:AA85" ca="1" si="15">Z22+IF(I22="","0",VLOOKUP(I22,$C$2:$AA$88,25,FALSE)*K22)+IF(M22="","0",VLOOKUP(M22,$C$2:$AA$88,25,FALSE)*O22)+IF(Q22="","0",VLOOKUP(Q22,$C$2:$AA$88,25,FALSE)*S22)+IF(U22="","0",VLOOKUP(U22,$C$2:$AA$88,25,FALSE)*W22)</f>
+        <f t="shared" ref="AA22:AA85" si="15">Z22+IF(I22="","0",VLOOKUP(I22,$C$2:$AA$88,25,FALSE)*K22)+IF(M22="","0",VLOOKUP(M22,$C$2:$AA$88,25,FALSE)*O22)+IF(Q22="","0",VLOOKUP(Q22,$C$2:$AA$88,25,FALSE)*S22)+IF(U22="","0",VLOOKUP(U22,$C$2:$AA$88,25,FALSE)*W22)</f>
         <v>14</v>
       </c>
       <c r="AB22" s="81">
@@ -7358,15 +7358,15 @@
         <v>2006</v>
       </c>
       <c r="AF22" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>甜奶油</v>
       </c>
       <c r="AG22" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AH22" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AI22" s="82">
@@ -7377,11 +7377,11 @@
         <v>2021</v>
       </c>
       <c r="AL22" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>草莓</v>
       </c>
       <c r="AM22" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -7414,34 +7414,34 @@
         <v>136</v>
       </c>
       <c r="J23" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K23" s="75">
         <v>3</v>
       </c>
       <c r="L23" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M23" s="84"/>
       <c r="N23" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O23" s="75"/>
       <c r="P23" s="77" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q23" s="84"/>
       <c r="R23" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S23" s="75"/>
       <c r="T23" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U23" s="84"/>
@@ -7453,7 +7453,7 @@
         <v>3</v>
       </c>
       <c r="Y23" s="88">
-        <f ca="1">ROUND((G23*60*H23)*1.1,0)+L23*K23+P23*O23+T23*S23+X23*W23</f>
+        <f>ROUND((G23*60*H23)*1.1,0)+L23*K23+P23*O23+T23*S23+X23*W23</f>
         <v>61</v>
       </c>
       <c r="Z23" s="89">
@@ -7461,7 +7461,7 @@
         <v>6</v>
       </c>
       <c r="AA23" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="AB23" s="81">
@@ -7475,26 +7475,26 @@
         <v>2009</v>
       </c>
       <c r="AF23" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>奶酪</v>
       </c>
       <c r="AG23" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AH23" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AK23" s="91">
         <v>2022</v>
       </c>
       <c r="AL23" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>果味巧克力</v>
       </c>
       <c r="AM23" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -7527,53 +7527,53 @@
         <v>136</v>
       </c>
       <c r="J24" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K24" s="75">
         <v>2</v>
       </c>
       <c r="L24" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="M24" s="84" t="s">
         <v>137</v>
       </c>
       <c r="N24" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O24" s="75">
         <v>2</v>
       </c>
       <c r="P24" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="Q24" s="84" t="s">
         <v>155</v>
       </c>
       <c r="R24" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S24" s="75">
         <v>1</v>
       </c>
       <c r="T24" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
       <c r="W24" s="75"/>
       <c r="X24" s="77" t="str">
-        <f ca="1">IF(U24="","0",VLOOKUP($U24,$C$1:$Y$88,23,FALSE)*$W24)</f>
+        <f>IF(U24="","0",VLOOKUP($U24,$C$1:$Y$88,23,FALSE)*$W24)</f>
         <v>0</v>
       </c>
       <c r="Y24" s="88">
-        <f ca="1">ROUND((G24*60*H24)*1.1,0)+L24*K24+P24*O24+T24*S24+X24*W24</f>
+        <f>ROUND((G24*60*H24)*1.1,0)+L24*K24+P24*O24+T24*S24+X24*W24</f>
         <v>95</v>
       </c>
       <c r="Z24" s="89">
@@ -7581,7 +7581,7 @@
         <v>15</v>
       </c>
       <c r="AA24" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="AB24" s="81">
@@ -7595,26 +7595,26 @@
         <v>2012</v>
       </c>
       <c r="AF24" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>焦糖布丁</v>
       </c>
       <c r="AG24" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AH24" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AK24" s="91">
         <v>2023</v>
       </c>
       <c r="AL24" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>丝绸</v>
       </c>
       <c r="AM24" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -7647,53 +7647,53 @@
         <v>137</v>
       </c>
       <c r="J25" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K25" s="75">
         <v>2</v>
       </c>
       <c r="L25" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M25" s="84" t="s">
         <v>136</v>
       </c>
       <c r="N25" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O25" s="75">
         <v>2</v>
       </c>
       <c r="P25" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="Q25" s="84" t="s">
         <v>8</v>
       </c>
       <c r="R25" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S25" s="75">
         <v>1</v>
       </c>
       <c r="T25" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U25" s="84"/>
       <c r="V25" s="84"/>
       <c r="W25" s="75"/>
       <c r="X25" s="77" t="str">
-        <f ca="1">IF(U25="","0",VLOOKUP($U25,$C$1:$Y$88,23,FALSE)*$W25)</f>
+        <f>IF(U25="","0",VLOOKUP($U25,$C$1:$Y$88,23,FALSE)*$W25)</f>
         <v>0</v>
       </c>
       <c r="Y25" s="88">
-        <f ca="1">ROUND((G25*60*H25)*1.1,0)+L25*K25+P25*O25+T25*S25+X25*W25</f>
+        <f>ROUND((G25*60*H25)*1.1,0)+L25*K25+P25*O25+T25*S25+X25*W25</f>
         <v>103</v>
       </c>
       <c r="Z25" s="89">
@@ -7701,7 +7701,7 @@
         <v>22</v>
       </c>
       <c r="AA25" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="AB25" s="81">
@@ -7715,26 +7715,26 @@
         <v>2017</v>
       </c>
       <c r="AF25" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>棒棒糖</v>
       </c>
       <c r="AG25" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AH25" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="AK25" s="91">
         <v>2024</v>
       </c>
       <c r="AL25" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>丝织品</v>
       </c>
       <c r="AM25" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -7767,53 +7767,53 @@
         <v>157</v>
       </c>
       <c r="J26" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K26" s="75">
         <v>2</v>
       </c>
       <c r="L26" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M26" s="84" t="s">
         <v>158</v>
       </c>
       <c r="N26" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O26" s="75">
         <v>1</v>
       </c>
       <c r="P26" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="Q26" s="84" t="s">
         <v>159</v>
       </c>
       <c r="R26" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S26" s="75">
         <v>1</v>
       </c>
       <c r="T26" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U26" s="84"/>
       <c r="V26" s="84"/>
       <c r="W26" s="75"/>
       <c r="X26" s="77" t="str">
-        <f ca="1">IF(U26="","0",VLOOKUP($U26,$C$1:$Y$88,23,FALSE)*$W26)</f>
+        <f>IF(U26="","0",VLOOKUP($U26,$C$1:$Y$88,23,FALSE)*$W26)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="88">
-        <f ca="1">ROUND((G26*60*H26)*1.1,0)+L26*K26+P26*O26+T26*S26+X26*W26</f>
+        <f>ROUND((G26*60*H26)*1.1,0)+L26*K26+P26*O26+T26*S26+X26*W26</f>
         <v>121</v>
       </c>
       <c r="Z26" s="89">
@@ -7821,7 +7821,7 @@
         <v>27</v>
       </c>
       <c r="AA26" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="AB26" s="81">
@@ -7835,26 +7835,26 @@
         <v>2022</v>
       </c>
       <c r="AF26" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>果味巧克力</v>
       </c>
       <c r="AG26" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AH26" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="AK26" s="91">
         <v>2025</v>
       </c>
       <c r="AL26" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>丝巾</v>
       </c>
       <c r="AM26" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
@@ -7887,49 +7887,49 @@
         <v>161</v>
       </c>
       <c r="J27" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K27" s="75">
         <v>2</v>
       </c>
       <c r="L27" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="M27" s="98" t="s">
         <v>162</v>
       </c>
       <c r="N27" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O27" s="75">
         <v>1</v>
       </c>
       <c r="P27" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="Q27" s="84"/>
       <c r="R27" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S27" s="75"/>
       <c r="T27" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U27" s="84"/>
       <c r="V27" s="84"/>
       <c r="W27" s="75"/>
       <c r="X27" s="77" t="str">
-        <f ca="1">IF(U27="","0",VLOOKUP($U27,$C$1:$Y$88,23,FALSE)*$W27)</f>
+        <f>IF(U27="","0",VLOOKUP($U27,$C$1:$Y$88,23,FALSE)*$W27)</f>
         <v>0</v>
       </c>
       <c r="Y27" s="88">
-        <f ca="1">ROUND((G27*60*H27)*1.15,0)+L27*K27+P27*O27+T27*S27+X27*W27</f>
+        <f>ROUND((G27*60*H27)*1.15,0)+L27*K27+P27*O27+T27*S27+X27*W27</f>
         <v>187</v>
       </c>
       <c r="Z27" s="89">
@@ -7937,7 +7937,7 @@
         <v>38</v>
       </c>
       <c r="AA27" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="AB27" s="81">
@@ -7951,26 +7951,26 @@
         <v>2026</v>
       </c>
       <c r="AF27" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>盆栽酸奶</v>
       </c>
       <c r="AG27" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AH27" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="AK27" s="91">
         <v>2026</v>
       </c>
       <c r="AL27" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>盆栽酸奶</v>
       </c>
       <c r="AM27" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -8003,53 +8003,53 @@
         <v>137</v>
       </c>
       <c r="J28" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K28" s="75">
         <v>1</v>
       </c>
       <c r="L28" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="M28" s="84" t="s">
         <v>136</v>
       </c>
       <c r="N28" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O28" s="75">
         <v>1</v>
       </c>
       <c r="P28" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q28" s="98" t="s">
         <v>49</v>
       </c>
       <c r="R28" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S28" s="75">
         <v>2</v>
       </c>
       <c r="T28" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="U28" s="84"/>
       <c r="V28" s="84"/>
       <c r="W28" s="75"/>
       <c r="X28" s="77" t="str">
-        <f ca="1">IF(U28="","0",VLOOKUP($U28,$C$1:$Y$88,23,FALSE)*$W28)</f>
+        <f>IF(U28="","0",VLOOKUP($U28,$C$1:$Y$88,23,FALSE)*$W28)</f>
         <v>0</v>
       </c>
       <c r="Y28" s="88">
-        <f ca="1">ROUND((G28*60*H28)*1.15,0)+L28*K28+P28*O28+T28*S28+X28*W28</f>
+        <f>ROUND((G28*60*H28)*1.15,0)+L28*K28+P28*O28+T28*S28+X28*W28</f>
         <v>95</v>
       </c>
       <c r="Z28" s="89">
@@ -8057,7 +8057,7 @@
         <v>24</v>
       </c>
       <c r="AA28" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="AB28" s="81">
@@ -8071,26 +8071,26 @@
         <v>2031</v>
       </c>
       <c r="AF28" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>冰淇淋</v>
       </c>
       <c r="AG28" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AH28" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="AK28" s="91">
         <v>2027</v>
       </c>
       <c r="AL28" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>猪肉</v>
       </c>
       <c r="AM28" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -8123,34 +8123,34 @@
         <v>134</v>
       </c>
       <c r="J29" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K29" s="75">
         <v>2</v>
       </c>
       <c r="L29" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M29" s="84"/>
       <c r="N29" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O29" s="75"/>
       <c r="P29" s="77" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q29" s="84"/>
       <c r="R29" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S29" s="75"/>
       <c r="T29" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U29" s="84"/>
@@ -8162,7 +8162,7 @@
         <v>2</v>
       </c>
       <c r="Y29" s="88">
-        <f t="shared" ref="Y29:Y34" ca="1" si="16">ROUND((G29*60*H29)*1.1,0)+L29*K29+P29*O29+T29*S29+X29*W29</f>
+        <f t="shared" ref="Y29:Y34" si="16">ROUND((G29*60*H29)*1.1,0)+L29*K29+P29*O29+T29*S29+X29*W29</f>
         <v>16</v>
       </c>
       <c r="Z29" s="89">
@@ -8170,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="AA29" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AB29" s="81">
@@ -8184,26 +8184,26 @@
         <v>2033</v>
       </c>
       <c r="AF29" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>中华拉面</v>
       </c>
       <c r="AG29" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AH29" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="AK29" s="91">
         <v>2028</v>
       </c>
       <c r="AL29" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>香肠</v>
       </c>
       <c r="AM29" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
@@ -8236,34 +8236,34 @@
         <v>136</v>
       </c>
       <c r="J30" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K30" s="75">
         <v>2</v>
       </c>
       <c r="L30" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="M30" s="107"/>
       <c r="N30" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O30" s="75"/>
       <c r="P30" s="77" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="R30" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S30" s="75"/>
       <c r="T30" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U30" s="84"/>
@@ -8275,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="Y30" s="88">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="Z30" s="89">
@@ -8283,7 +8283,7 @@
         <v>7</v>
       </c>
       <c r="AA30" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="AB30" s="81">
@@ -8297,26 +8297,26 @@
         <v>2035</v>
       </c>
       <c r="AF30" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>中华汤包</v>
       </c>
       <c r="AG30" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="AH30" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="AK30" s="92">
         <v>2029</v>
       </c>
       <c r="AL30" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>香蕉</v>
       </c>
       <c r="AM30" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -8349,49 +8349,49 @@
         <v>134</v>
       </c>
       <c r="J31" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K31" s="75">
         <v>3</v>
       </c>
       <c r="L31" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="M31" s="107" t="s">
         <v>7</v>
       </c>
       <c r="N31" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O31" s="75">
         <v>1</v>
       </c>
       <c r="P31" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="Q31" s="104"/>
       <c r="R31" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S31" s="75"/>
       <c r="T31" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U31" s="84"/>
       <c r="V31" s="84"/>
       <c r="W31" s="75"/>
       <c r="X31" s="77" t="str">
-        <f t="shared" ref="X31:X36" ca="1" si="17">IF(U31="","0",VLOOKUP($U31,$C$1:$Y$88,23,FALSE)*$W31)</f>
+        <f t="shared" ref="X31:X36" si="17">IF(U31="","0",VLOOKUP($U31,$C$1:$Y$88,23,FALSE)*$W31)</f>
         <v>0</v>
       </c>
       <c r="Y31" s="88">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="Z31" s="89">
@@ -8399,7 +8399,7 @@
         <v>11</v>
       </c>
       <c r="AA31" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="AB31" s="81">
@@ -8413,26 +8413,26 @@
         <v>2039</v>
       </c>
       <c r="AF31" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>牛肉水饺</v>
       </c>
       <c r="AG31" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AH31" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
       <c r="AK31" s="91">
         <v>2030</v>
       </c>
       <c r="AL31" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>香蕉牛奶</v>
       </c>
       <c r="AM31" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -8465,53 +8465,53 @@
         <v>134</v>
       </c>
       <c r="J32" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K32" s="75">
         <v>2</v>
       </c>
       <c r="L32" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M32" s="104" t="s">
         <v>136</v>
       </c>
       <c r="N32" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O32" s="75">
         <v>2</v>
       </c>
       <c r="P32" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="Q32" s="107" t="s">
         <v>140</v>
       </c>
       <c r="R32" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S32" s="75">
         <v>1</v>
       </c>
       <c r="T32" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="U32" s="84"/>
       <c r="V32" s="84"/>
       <c r="W32" s="75"/>
       <c r="X32" s="77" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y32" s="88">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>87</v>
       </c>
       <c r="Z32" s="89">
@@ -8519,7 +8519,7 @@
         <v>18</v>
       </c>
       <c r="AA32" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="AB32" s="81">
@@ -8533,26 +8533,26 @@
         <v>2051</v>
       </c>
       <c r="AF32" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>鸡汤面</v>
       </c>
       <c r="AG32" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AH32" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="AK32" s="92">
         <v>2031</v>
       </c>
       <c r="AL32" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>冰淇淋</v>
       </c>
       <c r="AM32" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -8585,53 +8585,53 @@
         <v>134</v>
       </c>
       <c r="J33" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K33" s="75">
         <v>2</v>
       </c>
       <c r="L33" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M33" s="84" t="s">
         <v>136</v>
       </c>
       <c r="N33" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O33" s="75">
         <v>2</v>
       </c>
       <c r="P33" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="Q33" s="84" t="s">
         <v>9</v>
       </c>
       <c r="R33" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S33" s="75">
         <v>1</v>
       </c>
       <c r="T33" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U33" s="84"/>
       <c r="V33" s="84"/>
       <c r="W33" s="75"/>
       <c r="X33" s="77" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y33" s="88">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="Z33" s="89">
@@ -8639,7 +8639,7 @@
         <v>24</v>
       </c>
       <c r="AA33" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="AB33" s="81">
@@ -8653,26 +8653,26 @@
         <v>2056</v>
       </c>
       <c r="AF33" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>冷面</v>
       </c>
       <c r="AG33" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AH33" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="AK33" s="91">
         <v>2032</v>
       </c>
       <c r="AL33" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>牛肉</v>
       </c>
       <c r="AM33" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -8705,53 +8705,53 @@
         <v>166</v>
       </c>
       <c r="J34" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K34" s="75">
         <v>2</v>
       </c>
       <c r="L34" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="M34" s="84" t="s">
         <v>136</v>
       </c>
       <c r="N34" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O34" s="75">
         <v>2</v>
       </c>
       <c r="P34" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="Q34" s="84" t="s">
         <v>8</v>
       </c>
       <c r="R34" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S34" s="75">
         <v>1</v>
       </c>
       <c r="T34" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U34" s="84"/>
       <c r="V34" s="84"/>
       <c r="W34" s="75"/>
       <c r="X34" s="77" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y34" s="88">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="Z34" s="89">
@@ -8759,7 +8759,7 @@
         <v>30</v>
       </c>
       <c r="AA34" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="AB34" s="81">
@@ -8773,32 +8773,32 @@
         <v>2065</v>
       </c>
       <c r="AF34" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>炒面面包</v>
       </c>
       <c r="AG34" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="AH34" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="AK34" s="92">
         <v>2033</v>
       </c>
       <c r="AL34" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>中华拉面</v>
       </c>
       <c r="AM34" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="83">
         <v>2011</v>
@@ -8810,7 +8810,7 @@
         <v>2011</v>
       </c>
       <c r="E35" s="75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="75">
         <v>3</v>
@@ -8825,58 +8825,58 @@
         <v>168</v>
       </c>
       <c r="J35" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K35" s="75">
         <v>1</v>
       </c>
       <c r="L35" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="M35" s="98" t="s">
         <v>169</v>
       </c>
       <c r="N35" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O35" s="75">
         <v>1</v>
       </c>
       <c r="P35" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="Q35" s="84"/>
       <c r="R35" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S35" s="75"/>
       <c r="T35" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U35" s="84"/>
       <c r="V35" s="84"/>
       <c r="W35" s="75"/>
       <c r="X35" s="77" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y35" s="88">
-        <f ca="1">ROUND((G35*60*H35)*1.15,0)+L35*K35+P35*O35+T35*S35+X35*W35</f>
+        <f>ROUND((G35*60*H35)*1.15,0)+L35*K35+P35*O35+T35*S35+X35*W35</f>
         <v>84</v>
       </c>
       <c r="Z35" s="89">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA35" s="90">
-        <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <f t="shared" si="15"/>
+        <v>31</v>
       </c>
       <c r="AB35" s="81">
         <f t="shared" si="3"/>
@@ -8889,26 +8889,26 @@
         <v>2038</v>
       </c>
       <c r="AF35" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>丝袜</v>
       </c>
       <c r="AG35" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AH35" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="AK35" s="91">
         <v>2034</v>
       </c>
       <c r="AL35" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>肉饼</v>
       </c>
       <c r="AM35" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
@@ -8941,53 +8941,53 @@
         <v>172</v>
       </c>
       <c r="J36" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K36" s="75">
         <v>1</v>
       </c>
       <c r="L36" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M36" s="84" t="s">
         <v>166</v>
       </c>
       <c r="N36" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O36" s="75">
         <v>2</v>
       </c>
       <c r="P36" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="Q36" s="84" t="s">
         <v>173</v>
       </c>
       <c r="R36" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S36" s="75">
         <v>1</v>
       </c>
       <c r="T36" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="U36" s="84"/>
       <c r="V36" s="84"/>
       <c r="W36" s="75"/>
       <c r="X36" s="77" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y36" s="88">
-        <f ca="1">ROUND((G36*60*H36)*1.1,0)+L36*K36+P36*O36+T36*S36+X36*W36</f>
+        <f>ROUND((G36*60*H36)*1.1,0)+L36*K36+P36*O36+T36*S36+X36*W36</f>
         <v>104</v>
       </c>
       <c r="Z36" s="89">
@@ -8995,7 +8995,7 @@
         <v>18</v>
       </c>
       <c r="AA36" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="AB36" s="81">
@@ -9009,26 +9009,26 @@
         <v>2040</v>
       </c>
       <c r="AF36" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>裙装</v>
       </c>
       <c r="AG36" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="AH36" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="AK36" s="91">
         <v>2035</v>
       </c>
       <c r="AL36" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>中华汤包</v>
       </c>
       <c r="AM36" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -9061,34 +9061,34 @@
         <v>139</v>
       </c>
       <c r="J37" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K37" s="75">
         <v>2</v>
       </c>
       <c r="L37" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M37" s="107"/>
       <c r="N37" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O37" s="75"/>
       <c r="P37" s="77" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q37" s="84"/>
       <c r="R37" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S37" s="75"/>
       <c r="T37" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U37" s="84"/>
@@ -9100,7 +9100,7 @@
         <v>5</v>
       </c>
       <c r="Y37" s="88">
-        <f ca="1">ROUND((G37*60*H37)*1.1,0)+L37*K37+P37*O37+T37*S37+X37*W37</f>
+        <f>ROUND((G37*60*H37)*1.1,0)+L37*K37+P37*O37+T37*S37+X37*W37</f>
         <v>84</v>
       </c>
       <c r="Z37" s="89">
@@ -9108,7 +9108,7 @@
         <v>13</v>
       </c>
       <c r="AA37" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="AB37" s="81">
@@ -9122,26 +9122,26 @@
         <v>2042</v>
       </c>
       <c r="AF37" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>家居服</v>
       </c>
       <c r="AG37" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="AH37" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="AK37" s="91">
         <v>2036</v>
       </c>
       <c r="AL37" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>毛绒</v>
       </c>
       <c r="AM37" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
@@ -9174,53 +9174,53 @@
         <v>139</v>
       </c>
       <c r="J38" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K38" s="75">
         <v>2</v>
       </c>
       <c r="L38" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M38" s="107" t="s">
         <v>168</v>
       </c>
       <c r="N38" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O38" s="75">
         <v>1</v>
       </c>
       <c r="P38" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="Q38" s="111" t="s">
         <v>176</v>
       </c>
       <c r="R38" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S38" s="75">
         <v>1</v>
       </c>
       <c r="T38" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U38" s="84"/>
       <c r="V38" s="84"/>
       <c r="W38" s="75"/>
       <c r="X38" s="77" t="str">
-        <f t="shared" ref="X38:X88" ca="1" si="18">IF(U38="","0",VLOOKUP($U38,$C$1:$Y$88,23,FALSE)*$W38)</f>
+        <f t="shared" ref="X38:X88" si="18">IF(U38="","0",VLOOKUP($U38,$C$1:$Y$88,23,FALSE)*$W38)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="88">
-        <f ca="1">ROUND((G38*60*H38)*1.15,0)+L38*K38+P38*O38+T38*S38+X38*W38</f>
+        <f>ROUND((G38*60*H38)*1.15,0)+L38*K38+P38*O38+T38*S38+X38*W38</f>
         <v>129</v>
       </c>
       <c r="Z38" s="89">
@@ -9228,7 +9228,7 @@
         <v>29</v>
       </c>
       <c r="AA38" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="AB38" s="81">
@@ -9242,26 +9242,26 @@
         <v>2043</v>
       </c>
       <c r="AF38" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>凯蒂娃娃</v>
       </c>
       <c r="AG38" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="AH38" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="AK38" s="92">
         <v>2037</v>
       </c>
       <c r="AL38" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>毛毯</v>
       </c>
       <c r="AM38" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
@@ -9294,49 +9294,49 @@
         <v>10</v>
       </c>
       <c r="J39" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K39" s="75">
         <v>1</v>
       </c>
       <c r="L39" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="M39" s="84" t="s">
         <v>166</v>
       </c>
       <c r="N39" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O39" s="75">
         <v>2</v>
       </c>
       <c r="P39" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="Q39" s="84"/>
       <c r="R39" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S39" s="75"/>
       <c r="T39" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U39" s="84"/>
       <c r="V39" s="84"/>
       <c r="W39" s="75"/>
       <c r="X39" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y39" s="88">
-        <f ca="1">ROUND((G39*60*H39)*1.1,0)+L39*K39+P39*O39+T39*S39+X39*W39</f>
+        <f>ROUND((G39*60*H39)*1.1,0)+L39*K39+P39*O39+T39*S39+X39*W39</f>
         <v>132</v>
       </c>
       <c r="Z39" s="89">
@@ -9344,7 +9344,7 @@
         <v>31</v>
       </c>
       <c r="AA39" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
       <c r="AB39" s="81">
@@ -9358,26 +9358,26 @@
         <v>2061</v>
       </c>
       <c r="AF39" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>香巾</v>
       </c>
       <c r="AG39" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="AH39" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>286</v>
       </c>
       <c r="AK39" s="91">
         <v>2038</v>
       </c>
       <c r="AL39" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>丝袜</v>
       </c>
       <c r="AM39" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -9410,49 +9410,49 @@
         <v>139</v>
       </c>
       <c r="J40" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K40" s="75">
         <v>1</v>
       </c>
       <c r="L40" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M40" s="104" t="s">
         <v>140</v>
       </c>
       <c r="N40" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O40" s="75">
         <v>1</v>
       </c>
       <c r="P40" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="Q40" s="104"/>
       <c r="R40" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S40" s="75"/>
       <c r="T40" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="75"/>
       <c r="X40" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y40" s="88">
-        <f ca="1">ROUND((G40*60*H40)*1.1,0)+L40*K40+P40*O40+T40*S40+X40*W40</f>
+        <f>ROUND((G40*60*H40)*1.1,0)+L40*K40+P40*O40+T40*S40+X40*W40</f>
         <v>111</v>
       </c>
       <c r="Z40" s="89">
@@ -9460,7 +9460,7 @@
         <v>38</v>
       </c>
       <c r="AA40" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="AB40" s="81">
@@ -9474,26 +9474,26 @@
         <v>2080</v>
       </c>
       <c r="AF40" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>公主裙</v>
       </c>
       <c r="AG40" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="AH40" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>452</v>
       </c>
       <c r="AK40" s="91">
         <v>2039</v>
       </c>
       <c r="AL40" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>牛肉水饺</v>
       </c>
       <c r="AM40" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
@@ -9526,60 +9526,60 @@
         <v>139</v>
       </c>
       <c r="J41" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K41" s="75">
         <v>2</v>
       </c>
       <c r="L41" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M41" s="93" t="s">
         <v>8</v>
       </c>
       <c r="N41" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O41" s="75">
         <v>1</v>
       </c>
       <c r="P41" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="Q41" s="84" t="s">
         <v>10</v>
       </c>
       <c r="R41" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S41" s="75">
         <v>1</v>
       </c>
       <c r="T41" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="U41" s="98" t="s">
         <v>11</v>
       </c>
       <c r="V41" s="84" t="str">
-        <f ca="1">IF(U41="","",IF($E41&lt;VLOOKUP(U41,$C$2:$E$88,3,FALSE),"出错了","正确"))</f>
+        <f>IF(U41="","",IF($E41&lt;VLOOKUP(U41,$C$2:$E$88,3,FALSE),"出错了","正确"))</f>
         <v>正确</v>
       </c>
       <c r="W41" s="75">
         <v>2</v>
       </c>
       <c r="X41" s="77">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
       <c r="Y41" s="88">
-        <f ca="1">ROUND((G41*60*H41)*1.15,0)+L41*K41+P41*O41+T41*S41+X41*W41</f>
+        <f>ROUND((G41*60*H41)*1.15,0)+L41*K41+P41*O41+T41*S41+X41*W41</f>
         <v>259</v>
       </c>
       <c r="Z41" s="89">
@@ -9587,7 +9587,7 @@
         <v>52</v>
       </c>
       <c r="AA41" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>116</v>
       </c>
       <c r="AB41" s="81">
@@ -9601,26 +9601,26 @@
         <v>2044</v>
       </c>
       <c r="AF41" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>冬日暖心</v>
       </c>
       <c r="AG41" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="AH41" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>336</v>
       </c>
       <c r="AK41" s="91">
         <v>2040</v>
       </c>
       <c r="AL41" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>裙装</v>
       </c>
       <c r="AM41" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
@@ -9653,45 +9653,45 @@
         <v>143</v>
       </c>
       <c r="J42" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K42" s="75">
         <v>2</v>
       </c>
       <c r="L42" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="M42" s="84"/>
       <c r="N42" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O42" s="75"/>
       <c r="P42" s="77" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q42" s="84"/>
       <c r="R42" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S42" s="75"/>
       <c r="T42" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U42" s="84"/>
       <c r="V42" s="84"/>
       <c r="W42" s="75"/>
       <c r="X42" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y42" s="88">
-        <f t="shared" ref="Y42:Y49" ca="1" si="19">ROUND((G42*60*H42)*1.1,0)+L42*K42+P42*O42+T42*S42+X42*W42</f>
+        <f t="shared" ref="Y42:Y49" si="19">ROUND((G42*60*H42)*1.1,0)+L42*K42+P42*O42+T42*S42+X42*W42</f>
         <v>297</v>
       </c>
       <c r="Z42" s="89">
@@ -9699,7 +9699,7 @@
         <v>28</v>
       </c>
       <c r="AA42" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="AB42" s="81">
@@ -9713,26 +9713,26 @@
         <v>2071</v>
       </c>
       <c r="AF42" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>OL套装</v>
       </c>
       <c r="AG42" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="AH42" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>434</v>
       </c>
       <c r="AK42" s="91">
         <v>2041</v>
       </c>
       <c r="AL42" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>布</v>
       </c>
       <c r="AM42" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -9765,49 +9765,49 @@
         <v>142</v>
       </c>
       <c r="J43" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K43" s="75">
         <v>2</v>
       </c>
       <c r="L43" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="M43" s="84" t="s">
         <v>147</v>
       </c>
       <c r="N43" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O43" s="75">
         <v>1</v>
       </c>
       <c r="P43" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="Q43" s="84"/>
       <c r="R43" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S43" s="75"/>
       <c r="T43" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U43" s="84"/>
       <c r="V43" s="84"/>
       <c r="W43" s="75"/>
       <c r="X43" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y43" s="88">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="19"/>
         <v>244</v>
       </c>
       <c r="Z43" s="89">
@@ -9815,7 +9815,7 @@
         <v>38</v>
       </c>
       <c r="AA43" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
       <c r="AB43" s="81">
@@ -9829,26 +9829,26 @@
         <v>2082</v>
       </c>
       <c r="AF43" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>性感女郎</v>
       </c>
       <c r="AG43" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="AH43" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="AK43" s="91">
         <v>2042</v>
       </c>
       <c r="AL43" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>家居服</v>
       </c>
       <c r="AM43" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
@@ -9881,49 +9881,49 @@
         <v>146</v>
       </c>
       <c r="J44" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K44" s="75">
         <v>1</v>
       </c>
       <c r="L44" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="M44" s="84" t="s">
         <v>147</v>
       </c>
       <c r="N44" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O44" s="75">
         <v>1</v>
       </c>
       <c r="P44" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="Q44" s="84"/>
       <c r="R44" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S44" s="75"/>
       <c r="T44" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U44" s="84"/>
       <c r="V44" s="84"/>
       <c r="W44" s="75"/>
       <c r="X44" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y44" s="88">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="19"/>
         <v>173</v>
       </c>
       <c r="Z44" s="89">
@@ -9931,7 +9931,7 @@
         <v>43</v>
       </c>
       <c r="AA44" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="AB44" s="81">
@@ -9945,26 +9945,26 @@
         <v>2083</v>
       </c>
       <c r="AF44" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>帅气女孩</v>
       </c>
       <c r="AG44" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="AH44" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>489</v>
       </c>
       <c r="AK44" s="91">
         <v>2043</v>
       </c>
       <c r="AL44" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>凯蒂娃娃</v>
       </c>
       <c r="AM44" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -9997,49 +9997,49 @@
         <v>143</v>
       </c>
       <c r="J45" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K45" s="75">
         <v>2</v>
       </c>
       <c r="L45" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="M45" s="84" t="s">
         <v>147</v>
       </c>
       <c r="N45" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O45" s="75">
         <v>1</v>
       </c>
       <c r="P45" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="Q45" s="84"/>
       <c r="R45" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S45" s="75"/>
       <c r="T45" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U45" s="84"/>
       <c r="V45" s="84"/>
       <c r="W45" s="75"/>
       <c r="X45" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y45" s="88">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="19"/>
         <v>383</v>
       </c>
       <c r="Z45" s="89">
@@ -10047,7 +10047,7 @@
         <v>51</v>
       </c>
       <c r="AA45" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
       <c r="AB45" s="81">
@@ -10061,26 +10061,26 @@
         <v>2086</v>
       </c>
       <c r="AF45" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>公主盛装</v>
       </c>
       <c r="AG45" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="AH45" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>1008</v>
       </c>
       <c r="AK45" s="91">
         <v>2044</v>
       </c>
       <c r="AL45" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>冬日暖心</v>
       </c>
       <c r="AM45" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
@@ -10113,53 +10113,53 @@
         <v>146</v>
       </c>
       <c r="J46" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K46" s="75">
         <v>1</v>
       </c>
       <c r="L46" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="M46" s="84" t="s">
         <v>10</v>
       </c>
       <c r="N46" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O46" s="75">
         <v>1</v>
       </c>
       <c r="P46" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="Q46" s="84" t="s">
         <v>147</v>
       </c>
       <c r="R46" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S46" s="75">
         <v>1</v>
       </c>
       <c r="T46" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="U46" s="84"/>
       <c r="V46" s="84"/>
       <c r="W46" s="75"/>
       <c r="X46" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y46" s="88">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="19"/>
         <v>210</v>
       </c>
       <c r="Z46" s="89">
@@ -10167,7 +10167,7 @@
         <v>45</v>
       </c>
       <c r="AA46" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="AB46" s="81">
@@ -10181,26 +10181,26 @@
         <v>2087</v>
       </c>
       <c r="AF46" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>女孩最爱</v>
       </c>
       <c r="AG46" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="AH46" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>829</v>
       </c>
       <c r="AK46" s="92">
         <v>2045</v>
       </c>
       <c r="AL46" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>苹果</v>
       </c>
       <c r="AM46" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -10233,49 +10233,49 @@
         <v>139</v>
       </c>
       <c r="J47" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K47" s="75">
         <v>1</v>
       </c>
       <c r="L47" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M47" s="84" t="s">
         <v>143</v>
       </c>
       <c r="N47" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O47" s="75">
         <v>2</v>
       </c>
       <c r="P47" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="Q47" s="84"/>
       <c r="R47" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S47" s="75"/>
       <c r="T47" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U47" s="84"/>
       <c r="V47" s="84"/>
       <c r="W47" s="75"/>
       <c r="X47" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y47" s="88">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="19"/>
         <v>317</v>
       </c>
       <c r="Z47" s="89">
@@ -10283,7 +10283,7 @@
         <v>26</v>
       </c>
       <c r="AA47" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="AB47" s="81">
@@ -10297,26 +10297,26 @@
         <v>2046</v>
       </c>
       <c r="AF47" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>苹果派</v>
       </c>
       <c r="AG47" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AH47" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="AK47" s="92">
         <v>2046</v>
       </c>
       <c r="AL47" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>苹果派</v>
       </c>
       <c r="AM47" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -10349,53 +10349,53 @@
         <v>139</v>
       </c>
       <c r="J48" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K48" s="75">
         <v>2</v>
       </c>
       <c r="L48" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M48" s="84" t="s">
         <v>146</v>
       </c>
       <c r="N48" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O48" s="75">
         <v>1</v>
       </c>
       <c r="P48" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="Q48" s="84" t="s">
         <v>147</v>
       </c>
       <c r="R48" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S48" s="75">
         <v>1</v>
       </c>
       <c r="T48" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="U48" s="84"/>
       <c r="V48" s="84"/>
       <c r="W48" s="75"/>
       <c r="X48" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y48" s="88">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="19"/>
         <v>269</v>
       </c>
       <c r="Z48" s="89">
@@ -10403,7 +10403,7 @@
         <v>48</v>
       </c>
       <c r="AA48" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>112</v>
       </c>
       <c r="AB48" s="81">
@@ -10417,26 +10417,26 @@
         <v>2057</v>
       </c>
       <c r="AF48" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>披萨</v>
       </c>
       <c r="AG48" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="AH48" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
       <c r="AK48" s="91">
         <v>2047</v>
       </c>
       <c r="AL48" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>奶昔</v>
       </c>
       <c r="AM48" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -10469,53 +10469,53 @@
         <v>182</v>
       </c>
       <c r="J49" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K49" s="75">
         <v>2</v>
       </c>
       <c r="L49" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M49" s="84" t="s">
         <v>183</v>
       </c>
       <c r="N49" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O49" s="75">
         <v>1</v>
       </c>
       <c r="P49" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="Q49" s="84" t="s">
         <v>184</v>
       </c>
       <c r="R49" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S49" s="75">
         <v>2</v>
       </c>
       <c r="T49" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="U49" s="84"/>
       <c r="V49" s="84"/>
       <c r="W49" s="75"/>
       <c r="X49" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y49" s="88">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="19"/>
         <v>142</v>
       </c>
       <c r="Z49" s="89">
@@ -10523,7 +10523,7 @@
         <v>23</v>
       </c>
       <c r="AA49" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
       <c r="AB49" s="81">
@@ -10537,26 +10537,26 @@
         <v>2062</v>
       </c>
       <c r="AF49" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>炸鸡</v>
       </c>
       <c r="AG49" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="AH49" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="AK49" s="91">
         <v>2048</v>
       </c>
       <c r="AL49" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>鸡肉</v>
       </c>
       <c r="AM49" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
@@ -10589,49 +10589,49 @@
         <v>182</v>
       </c>
       <c r="J50" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K50" s="75">
         <v>1</v>
       </c>
       <c r="L50" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M50" s="98" t="s">
         <v>186</v>
       </c>
       <c r="N50" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O50" s="75">
         <v>1</v>
       </c>
       <c r="P50" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>297</v>
       </c>
       <c r="Q50" s="84"/>
       <c r="R50" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S50" s="75"/>
       <c r="T50" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U50" s="84"/>
       <c r="V50" s="84"/>
       <c r="W50" s="75"/>
       <c r="X50" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y50" s="88">
-        <f ca="1">ROUND((G50*60*H50)*1.15,0)+L50*K50+P50*O50+T50*S50+X50*W50</f>
+        <f>ROUND((G50*60*H50)*1.15,0)+L50*K50+P50*O50+T50*S50+X50*W50</f>
         <v>354</v>
       </c>
       <c r="Z50" s="89">
@@ -10639,7 +10639,7 @@
         <v>52</v>
       </c>
       <c r="AA50" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>123</v>
       </c>
       <c r="AB50" s="81">
@@ -10653,26 +10653,26 @@
         <v>2064</v>
       </c>
       <c r="AF50" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>热狗</v>
       </c>
       <c r="AG50" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="AH50" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="AK50" s="91">
         <v>2049</v>
       </c>
       <c r="AL50" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>芝士鸡排</v>
       </c>
       <c r="AM50" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -10705,53 +10705,53 @@
         <v>139</v>
       </c>
       <c r="J51" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K51" s="75">
         <v>1</v>
       </c>
       <c r="L51" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M51" s="98" t="s">
         <v>49</v>
       </c>
       <c r="N51" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O51" s="75">
         <v>2</v>
       </c>
       <c r="P51" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="Q51" s="84" t="s">
         <v>147</v>
       </c>
       <c r="R51" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S51" s="75">
         <v>1</v>
       </c>
       <c r="T51" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="U51" s="84"/>
       <c r="V51" s="84"/>
       <c r="W51" s="75"/>
       <c r="X51" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y51" s="88">
-        <f ca="1">ROUND((G51*60*H51)*1.15,0)+L51*K51+P51*O51+T51*S51+X51*W51</f>
+        <f>ROUND((G51*60*H51)*1.15,0)+L51*K51+P51*O51+T51*S51+X51*W51</f>
         <v>171</v>
       </c>
       <c r="Z51" s="89">
@@ -10759,7 +10759,7 @@
         <v>67</v>
       </c>
       <c r="AA51" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>105</v>
       </c>
       <c r="AB51" s="81">
@@ -10773,26 +10773,26 @@
         <v>2072</v>
       </c>
       <c r="AF51" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>汉堡包</v>
       </c>
       <c r="AG51" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AH51" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="AK51" s="91">
         <v>2050</v>
       </c>
       <c r="AL51" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>果酱</v>
       </c>
       <c r="AM51" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -10825,53 +10825,53 @@
         <v>55</v>
       </c>
       <c r="J52" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K52" s="75">
         <v>2</v>
       </c>
       <c r="L52" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="M52" s="84" t="s">
         <v>139</v>
       </c>
       <c r="N52" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O52" s="75">
         <v>2</v>
       </c>
       <c r="P52" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="Q52" s="84" t="s">
         <v>142</v>
       </c>
       <c r="R52" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S52" s="75">
         <v>1</v>
       </c>
       <c r="T52" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="U52" s="84"/>
       <c r="V52" s="84"/>
       <c r="W52" s="75"/>
       <c r="X52" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y52" s="88">
-        <f ca="1">ROUND((G52*60*H52)*1.15,0)+L52*K52+P52*O52+T52*S52+X52*W52</f>
+        <f>ROUND((G52*60*H52)*1.15,0)+L52*K52+P52*O52+T52*S52+X52*W52</f>
         <v>503</v>
       </c>
       <c r="Z52" s="89">
@@ -10879,7 +10879,7 @@
         <v>60</v>
       </c>
       <c r="AA52" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>144</v>
       </c>
       <c r="AB52" s="81">
@@ -10893,26 +10893,26 @@
         <v>2078</v>
       </c>
       <c r="AF52" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>豪华套餐</v>
       </c>
       <c r="AG52" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="AH52" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>258</v>
       </c>
       <c r="AK52" s="91">
         <v>2051</v>
       </c>
       <c r="AL52" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>鸡汤面</v>
       </c>
       <c r="AM52" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -10945,49 +10945,49 @@
         <v>139</v>
       </c>
       <c r="J53" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K53" s="75">
         <v>1</v>
       </c>
       <c r="L53" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M53" s="84" t="s">
         <v>146</v>
       </c>
       <c r="N53" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O53" s="75">
         <v>1</v>
       </c>
       <c r="P53" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="Q53" s="84"/>
       <c r="R53" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S53" s="75"/>
       <c r="T53" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U53" s="84"/>
       <c r="V53" s="84"/>
       <c r="W53" s="75"/>
       <c r="X53" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y53" s="88">
-        <f ca="1">ROUND((G53*60*H53)*1.1,0)+L53*K53+P53*O53+T53*S53+X53*W53</f>
+        <f>ROUND((G53*60*H53)*1.1,0)+L53*K53+P53*O53+T53*S53+X53*W53</f>
         <v>153</v>
       </c>
       <c r="Z53" s="89">
@@ -10995,7 +10995,7 @@
         <v>39</v>
       </c>
       <c r="AA53" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="AB53" s="81">
@@ -11009,26 +11009,26 @@
         <v>2049</v>
       </c>
       <c r="AF53" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>芝士鸡排</v>
       </c>
       <c r="AG53" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="AH53" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>272</v>
       </c>
       <c r="AK53" s="91">
         <v>2052</v>
       </c>
       <c r="AL53" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>调味料</v>
       </c>
       <c r="AM53" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
@@ -11061,49 +11061,49 @@
         <v>139</v>
       </c>
       <c r="J54" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K54" s="75">
         <v>2</v>
       </c>
       <c r="L54" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M54" s="84" t="s">
         <v>10</v>
       </c>
       <c r="N54" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O54" s="75">
         <v>1</v>
       </c>
       <c r="P54" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="Q54" s="84"/>
       <c r="R54" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S54" s="75"/>
       <c r="T54" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U54" s="84"/>
       <c r="V54" s="84"/>
       <c r="W54" s="75"/>
       <c r="X54" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y54" s="88">
-        <f ca="1">ROUND((G54*60*H54)*1.1,0)+L54*K54+P54*O54+T54*S54+X54*W54</f>
+        <f>ROUND((G54*60*H54)*1.1,0)+L54*K54+P54*O54+T54*S54+X54*W54</f>
         <v>137</v>
       </c>
       <c r="Z54" s="89">
@@ -11111,7 +11111,7 @@
         <v>26</v>
       </c>
       <c r="AA54" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
       <c r="AB54" s="81">
@@ -11125,26 +11125,26 @@
         <v>2055</v>
       </c>
       <c r="AF54" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>水果色拉</v>
       </c>
       <c r="AG54" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="AH54" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="AK54" s="91">
         <v>2053</v>
       </c>
       <c r="AL54" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>碳烤牛排</v>
       </c>
       <c r="AM54" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
@@ -11177,53 +11177,53 @@
         <v>139</v>
       </c>
       <c r="J55" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K55" s="75">
         <v>1</v>
       </c>
       <c r="L55" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="M55" s="98" t="s">
         <v>59</v>
       </c>
       <c r="N55" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O55" s="75">
         <v>1</v>
       </c>
       <c r="P55" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>244</v>
       </c>
       <c r="Q55" s="84" t="s">
         <v>147</v>
       </c>
       <c r="R55" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S55" s="75">
         <v>1</v>
       </c>
       <c r="T55" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="U55" s="84"/>
       <c r="V55" s="84"/>
       <c r="W55" s="75"/>
       <c r="X55" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y55" s="88">
-        <f ca="1">ROUND((G55*60*H55)*1.15,0)+L55*K55+P55*O55+T55*S55+X55*W55</f>
+        <f>ROUND((G55*60*H55)*1.15,0)+L55*K55+P55*O55+T55*S55+X55*W55</f>
         <v>352</v>
       </c>
       <c r="Z55" s="89">
@@ -11231,7 +11231,7 @@
         <v>75</v>
       </c>
       <c r="AA55" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>194</v>
       </c>
       <c r="AB55" s="81">
@@ -11245,26 +11245,26 @@
         <v>2060</v>
       </c>
       <c r="AF55" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>芝士汉堡肉</v>
       </c>
       <c r="AG55" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AH55" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="AK55" s="91">
         <v>2054</v>
       </c>
       <c r="AL55" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>生日蛋糕</v>
       </c>
       <c r="AM55" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
@@ -11297,53 +11297,53 @@
         <v>55</v>
       </c>
       <c r="J56" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K56" s="75">
         <v>1</v>
       </c>
       <c r="L56" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="M56" s="98" t="s">
         <v>58</v>
       </c>
       <c r="N56" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O56" s="75">
         <v>1</v>
       </c>
       <c r="P56" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>297</v>
       </c>
       <c r="Q56" s="84" t="s">
         <v>147</v>
       </c>
       <c r="R56" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S56" s="75">
         <v>1</v>
       </c>
       <c r="T56" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="U56" s="84"/>
       <c r="V56" s="84"/>
       <c r="W56" s="75"/>
       <c r="X56" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y56" s="88">
-        <f ca="1">ROUND((G56*60*H56)*1.2,0)+L56*K56+P56*O56+T56*S56+X56*W56</f>
+        <f>ROUND((G56*60*H56)*1.2,0)+L56*K56+P56*O56+T56*S56+X56*W56</f>
         <v>459</v>
       </c>
       <c r="Z56" s="89">
@@ -11351,7 +11351,7 @@
         <v>67</v>
       </c>
       <c r="AA56" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>179</v>
       </c>
       <c r="AB56" s="81">
@@ -11365,26 +11365,26 @@
         <v>2066</v>
       </c>
       <c r="AF56" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>牛排定食</v>
       </c>
       <c r="AG56" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AH56" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="AK56" s="91">
         <v>2055</v>
       </c>
       <c r="AL56" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>水果色拉</v>
       </c>
       <c r="AM56" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
@@ -11417,53 +11417,53 @@
         <v>55</v>
       </c>
       <c r="J57" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K57" s="75">
         <v>1</v>
       </c>
       <c r="L57" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="M57" s="98" t="s">
         <v>59</v>
       </c>
       <c r="N57" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O57" s="75">
         <v>1</v>
       </c>
       <c r="P57" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>244</v>
       </c>
       <c r="Q57" s="98" t="s">
         <v>12</v>
       </c>
       <c r="R57" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S57" s="75">
         <v>2</v>
       </c>
       <c r="T57" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>122</v>
       </c>
       <c r="U57" s="84"/>
       <c r="V57" s="84"/>
       <c r="W57" s="75"/>
       <c r="X57" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y57" s="88">
-        <f ca="1">ROUND((G57*60*H57)*1.25,0)+L57*K57+P57*O57+T57*S57+X57*W57</f>
+        <f>ROUND((G57*60*H57)*1.25,0)+L57*K57+P57*O57+T57*S57+X57*W57</f>
         <v>649</v>
       </c>
       <c r="Z57" s="89">
@@ -11471,7 +11471,7 @@
         <v>84</v>
       </c>
       <c r="AA57" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>226</v>
       </c>
       <c r="AB57" s="81">
@@ -11485,26 +11485,26 @@
         <v>2073</v>
       </c>
       <c r="AF57" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>烤肉拼盘</v>
       </c>
       <c r="AG57" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="AH57" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>352</v>
       </c>
       <c r="AK57" s="91">
         <v>2056</v>
       </c>
       <c r="AL57" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>冷面</v>
       </c>
       <c r="AM57" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
@@ -11537,53 +11537,53 @@
         <v>55</v>
       </c>
       <c r="J58" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K58" s="75">
         <v>1</v>
       </c>
       <c r="L58" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="M58" s="98" t="s">
         <v>51</v>
       </c>
       <c r="N58" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O58" s="75">
         <v>1</v>
       </c>
       <c r="P58" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="Q58" s="98" t="s">
         <v>61</v>
       </c>
       <c r="R58" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S58" s="75">
         <v>1</v>
       </c>
       <c r="T58" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>383</v>
       </c>
       <c r="U58" s="84"/>
       <c r="V58" s="84"/>
       <c r="W58" s="75"/>
       <c r="X58" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y58" s="88">
-        <f ca="1">ROUND((G58*60*H58)*1.25,0)+L58*K58+P58*O58+T58*S58+X58*W58</f>
+        <f>ROUND((G58*60*H58)*1.25,0)+L58*K58+P58*O58+T58*S58+X58*W58</f>
         <v>626</v>
       </c>
       <c r="Z58" s="89">
@@ -11591,7 +11591,7 @@
         <v>107</v>
       </c>
       <c r="AA58" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>258</v>
       </c>
       <c r="AB58" s="81">
@@ -11605,26 +11605,26 @@
         <v>2002</v>
       </c>
       <c r="AF58" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>冰块</v>
       </c>
       <c r="AG58" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH58" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AK58" s="91">
         <v>2057</v>
       </c>
       <c r="AL58" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>披萨</v>
       </c>
       <c r="AM58" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
@@ -11657,53 +11657,53 @@
         <v>8</v>
       </c>
       <c r="J59" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K59" s="75">
         <v>1</v>
       </c>
       <c r="L59" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M59" s="84" t="s">
         <v>9</v>
       </c>
       <c r="N59" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O59" s="75">
         <v>1</v>
       </c>
       <c r="P59" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="Q59" s="84" t="s">
         <v>10</v>
       </c>
       <c r="R59" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S59" s="75">
         <v>1</v>
       </c>
       <c r="T59" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="U59" s="84"/>
       <c r="V59" s="84"/>
       <c r="W59" s="75"/>
       <c r="X59" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y59" s="88">
-        <f ca="1">ROUND((G59*60*H59)*1.1,0)+L59*K59+P59*O59+T59*S59+X59*W59</f>
+        <f>ROUND((G59*60*H59)*1.1,0)+L59*K59+P59*O59+T59*S59+X59*W59</f>
         <v>117</v>
       </c>
       <c r="Z59" s="89">
@@ -11711,7 +11711,7 @@
         <v>40</v>
       </c>
       <c r="AA59" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="AB59" s="81">
@@ -11725,26 +11725,26 @@
         <v>2004</v>
       </c>
       <c r="AF59" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>酸奶</v>
       </c>
       <c r="AG59" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AH59" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="AK59" s="91">
         <v>2058</v>
       </c>
       <c r="AL59" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>香精</v>
       </c>
       <c r="AM59" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
@@ -11777,49 +11777,49 @@
         <v>12</v>
       </c>
       <c r="J60" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K60" s="75">
         <v>2</v>
       </c>
       <c r="L60" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="M60" s="98" t="s">
         <v>58</v>
       </c>
       <c r="N60" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O60" s="75">
         <v>1</v>
       </c>
       <c r="P60" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>297</v>
       </c>
       <c r="Q60" s="84"/>
       <c r="R60" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S60" s="75"/>
       <c r="T60" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U60" s="84"/>
       <c r="V60" s="84"/>
       <c r="W60" s="75"/>
       <c r="X60" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y60" s="88">
-        <f ca="1">ROUND((G60*60*H60)*1.2,0)+L60*K60+P60*O60+T60*S60+X60*W60</f>
+        <f>ROUND((G60*60*H60)*1.2,0)+L60*K60+P60*O60+T60*S60+X60*W60</f>
         <v>625</v>
       </c>
       <c r="Z60" s="89">
@@ -11827,7 +11827,7 @@
         <v>73</v>
       </c>
       <c r="AA60" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>161</v>
       </c>
       <c r="AB60" s="81">
@@ -11841,26 +11841,26 @@
         <v>2008</v>
       </c>
       <c r="AF60" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>橙汁</v>
       </c>
       <c r="AG60" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AH60" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AK60" s="91">
         <v>2059</v>
       </c>
       <c r="AL60" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>香水</v>
       </c>
       <c r="AM60" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
@@ -11893,49 +11893,49 @@
         <v>12</v>
       </c>
       <c r="J61" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K61" s="75">
         <v>2</v>
       </c>
       <c r="L61" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="M61" s="98" t="s">
         <v>40</v>
       </c>
       <c r="N61" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O61" s="75">
         <v>2</v>
       </c>
       <c r="P61" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>306</v>
       </c>
       <c r="Q61" s="84"/>
       <c r="R61" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S61" s="75"/>
       <c r="T61" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U61" s="84"/>
       <c r="V61" s="84"/>
       <c r="W61" s="75"/>
       <c r="X61" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y61" s="88">
-        <f ca="1">ROUND((G61*60*H61)*1.2,0)+L61*K61+P61*O61+T61*S61+X61*W61</f>
+        <f>ROUND((G61*60*H61)*1.2,0)+L61*K61+P61*O61+T61*S61+X61*W61</f>
         <v>969</v>
       </c>
       <c r="Z61" s="89">
@@ -11943,7 +11943,7 @@
         <v>98</v>
       </c>
       <c r="AA61" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>272</v>
       </c>
       <c r="AB61" s="81">
@@ -11957,26 +11957,26 @@
         <v>2019</v>
       </c>
       <c r="AF61" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>热巧克力</v>
       </c>
       <c r="AG61" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AH61" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="AK61" s="91">
         <v>2060</v>
       </c>
       <c r="AL61" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>芝士汉堡肉</v>
       </c>
       <c r="AM61" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -12009,49 +12009,49 @@
         <v>61</v>
       </c>
       <c r="J62" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K62" s="75">
         <v>1</v>
       </c>
       <c r="L62" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>383</v>
       </c>
       <c r="M62" s="98" t="s">
         <v>51</v>
       </c>
       <c r="N62" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O62" s="75">
         <v>1</v>
       </c>
       <c r="P62" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="Q62" s="84"/>
       <c r="R62" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S62" s="75"/>
       <c r="T62" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U62" s="84"/>
       <c r="V62" s="84"/>
       <c r="W62" s="75"/>
       <c r="X62" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y62" s="88">
-        <f ca="1">ROUND((G62*60*H62)*1.2,0)+L62*K62+P62*O62+T62*S62+X62*W62</f>
+        <f>ROUND((G62*60*H62)*1.2,0)+L62*K62+P62*O62+T62*S62+X62*W62</f>
         <v>569</v>
       </c>
       <c r="Z62" s="89">
@@ -12059,7 +12059,7 @@
         <v>115</v>
       </c>
       <c r="AA62" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>239</v>
       </c>
       <c r="AB62" s="81">
@@ -12073,26 +12073,26 @@
         <v>2030</v>
       </c>
       <c r="AF62" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>香蕉牛奶</v>
       </c>
       <c r="AG62" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AH62" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="AK62" s="91">
         <v>2061</v>
       </c>
       <c r="AL62" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>香巾</v>
       </c>
       <c r="AM62" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
@@ -12125,53 +12125,53 @@
         <v>51</v>
       </c>
       <c r="J63" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K63" s="75">
         <v>1</v>
       </c>
       <c r="L63" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="M63" s="98" t="s">
         <v>60</v>
       </c>
       <c r="N63" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v>正确</v>
       </c>
       <c r="O63" s="75">
         <v>1</v>
       </c>
       <c r="P63" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>173</v>
       </c>
       <c r="Q63" s="98" t="s">
         <v>62</v>
       </c>
       <c r="R63" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>正确</v>
       </c>
       <c r="S63" s="75">
         <v>1</v>
       </c>
       <c r="T63" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>210</v>
       </c>
       <c r="U63" s="84"/>
       <c r="V63" s="84"/>
       <c r="W63" s="75"/>
       <c r="X63" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y63" s="88">
-        <f ca="1">ROUND((G63*60*H63)*1.25,0)+L63*K63+P63*O63+T63*S63+X63*W63</f>
+        <f>ROUND((G63*60*H63)*1.25,0)+L63*K63+P63*O63+T63*S63+X63*W63</f>
         <v>609</v>
       </c>
       <c r="Z63" s="89">
@@ -12179,7 +12179,7 @@
         <v>133</v>
       </c>
       <c r="AA63" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>352</v>
       </c>
       <c r="AB63" s="81">
@@ -12193,26 +12193,26 @@
         <v>2047</v>
       </c>
       <c r="AF63" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>奶昔</v>
       </c>
       <c r="AG63" s="82">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AH63" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="AK63" s="91">
         <v>2062</v>
       </c>
       <c r="AL63" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>炸鸡</v>
       </c>
       <c r="AM63" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
@@ -12245,45 +12245,45 @@
         <v>193</v>
       </c>
       <c r="J64" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K64" s="75">
         <v>2</v>
       </c>
       <c r="L64" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="M64" s="84"/>
       <c r="N64" s="84" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O64" s="75"/>
       <c r="P64" s="77" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q64" s="84"/>
       <c r="R64" s="84" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S64" s="75"/>
       <c r="T64" s="77" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U64" s="84"/>
       <c r="V64" s="84"/>
       <c r="W64" s="75"/>
       <c r="X64" s="77" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y64" s="88">
-        <f t="shared" ref="Y64:Y69" ca="1" si="20">ROUND((G64*60*H64)*1.1,0)+L64*K64+P64*O64+T64*S64+X64*W64</f>
+        <f t="shared" ref="Y64:Y69" si="20">ROUND((G64*60*H64)*1.1,0)+L64*K64+P64*O64+T64*S64+X64*W64</f>
         <v>331</v>
       </c>
       <c r="Z64" s="89">
@@ -12291,7 +12291,7 @@
         <v>29</v>
       </c>
       <c r="AA64" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="AB64" s="81">
@@ -12305,26 +12305,26 @@
         <v>2011</v>
       </c>
       <c r="AF64" s="82" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>慕斯</v>
       </c>
       <c r="AG64" s="82">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="AH64" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AK64" s="91">
         <v>2063</v>
       </c>
       <c r="AL64" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>烤鸡翅</v>
       </c>
       <c r="AM64" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12357,7 +12357,7 @@
         <v>196</v>
       </c>
       <c r="J65" s="84" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>正确</v>
       </c>
       <c r="K65" s="75">
@@ -12395,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="88">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="20"/>
         <v>231</v>
       </c>
       <c r="Z65" s="89">
@@ -12403,7 +12403,7 @@
         <v>25</v>
       </c>
       <c r="AA65" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="AB65" s="81">
@@ -12425,7 +12425,7 @@
         <v>12</v>
       </c>
       <c r="AH65" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="AK65" s="91">
@@ -12490,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="P66" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="Q66" s="84"/>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="88">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="20"/>
         <v>198</v>
       </c>
       <c r="Z66" s="89">
@@ -12519,7 +12519,7 @@
         <v>48</v>
       </c>
       <c r="AA66" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>89</v>
       </c>
       <c r="AB66" s="81">
@@ -12541,7 +12541,7 @@
         <v>11</v>
       </c>
       <c r="AH66" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AK66" s="91">
@@ -12592,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="M67" s="84" t="s">
@@ -12606,7 +12606,7 @@
         <v>3</v>
       </c>
       <c r="P67" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="Q67" s="84"/>
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="88">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="Z67" s="89">
@@ -12635,7 +12635,7 @@
         <v>57</v>
       </c>
       <c r="AA67" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
       <c r="AB67" s="81">
@@ -12657,7 +12657,7 @@
         <v>14</v>
       </c>
       <c r="AH67" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="AK67" s="91">
@@ -12722,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="P68" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="Q68" s="84"/>
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="88">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="20"/>
         <v>306</v>
       </c>
       <c r="Z68" s="89">
@@ -12751,7 +12751,7 @@
         <v>60</v>
       </c>
       <c r="AA68" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="AB68" s="81">
@@ -12773,7 +12773,7 @@
         <v>19</v>
       </c>
       <c r="AH68" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="AK68" s="91">
@@ -12838,7 +12838,7 @@
         <v>2</v>
       </c>
       <c r="P69" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="Q69" s="84"/>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="88">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="20"/>
         <v>556</v>
       </c>
       <c r="Z69" s="89">
@@ -12867,7 +12867,7 @@
         <v>68</v>
       </c>
       <c r="AA69" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>144</v>
       </c>
       <c r="AB69" s="81">
@@ -12889,7 +12889,7 @@
         <v>20</v>
       </c>
       <c r="AH69" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="AK69" s="92">
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="M70" s="98" t="s">
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="P70" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
       <c r="Q70" s="84"/>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="88">
-        <f ca="1">ROUND((G70*60*H70)*1.15,0)+L70*K70+P70*O70+T70*S70+X70*W70</f>
+        <f>ROUND((G70*60*H70)*1.15,0)+L70*K70+P70*O70+T70*S70+X70*W70</f>
         <v>624</v>
       </c>
       <c r="Z70" s="89">
@@ -12983,7 +12983,7 @@
         <v>122</v>
       </c>
       <c r="AA70" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>230</v>
       </c>
       <c r="AB70" s="81">
@@ -13005,7 +13005,7 @@
         <v>22</v>
       </c>
       <c r="AH70" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="AK70" s="91">
@@ -13056,7 +13056,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="M71" s="84"/>
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="88">
-        <f ca="1">ROUND((G71*60*H71)*1.1,0)+L71*K71+P71*O71+T71*S71+X71*W71</f>
+        <f>ROUND((G71*60*H71)*1.1,0)+L71*K71+P71*O71+T71*S71+X71*W71</f>
         <v>267</v>
       </c>
       <c r="Z71" s="89">
@@ -13095,7 +13095,7 @@
         <v>29</v>
       </c>
       <c r="AA71" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="AB71" s="81">
@@ -13117,7 +13117,7 @@
         <v>22</v>
       </c>
       <c r="AH71" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="AK71" s="91">
@@ -13168,7 +13168,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>462</v>
       </c>
       <c r="M72" s="84"/>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="88">
-        <f ca="1">ROUND((G72*60*H72)*1.1,0)+L72*K72+P72*O72+T72*S72+X72*W72</f>
+        <f>ROUND((G72*60*H72)*1.1,0)+L72*K72+P72*O72+T72*S72+X72*W72</f>
         <v>990</v>
       </c>
       <c r="Z72" s="89">
@@ -13207,7 +13207,7 @@
         <v>58</v>
       </c>
       <c r="AA72" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>160</v>
       </c>
       <c r="AB72" s="81">
@@ -13229,7 +13229,7 @@
         <v>29</v>
       </c>
       <c r="AH72" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="AK72" s="91">
@@ -13280,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="M73" s="84" t="s">
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="Q73" s="84"/>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="88">
-        <f ca="1">ROUND((G73*60*H73)*1.1,0)+L73*K73+P73*O73+T73*S73+X73*W73</f>
+        <f>ROUND((G73*60*H73)*1.1,0)+L73*K73+P73*O73+T73*S73+X73*W73</f>
         <v>201</v>
       </c>
       <c r="Z73" s="89">
@@ -13323,7 +13323,7 @@
         <v>36</v>
       </c>
       <c r="AA73" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="AB73" s="81">
@@ -13345,7 +13345,7 @@
         <v>31</v>
       </c>
       <c r="AH73" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="AK73" s="91">
@@ -13396,7 +13396,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="M74" s="84" t="s">
@@ -13410,7 +13410,7 @@
         <v>2</v>
       </c>
       <c r="P74" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="Q74" s="84"/>
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="88">
-        <f ca="1">ROUND((G74*60*H74)*1.1,0)+L74*K74+P74*O74+T74*S74+X74*W74</f>
+        <f>ROUND((G74*60*H74)*1.1,0)+L74*K74+P74*O74+T74*S74+X74*W74</f>
         <v>694</v>
       </c>
       <c r="Z74" s="89">
@@ -13439,7 +13439,7 @@
         <v>67</v>
       </c>
       <c r="AA74" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>155</v>
       </c>
       <c r="AB74" s="81">
@@ -13461,7 +13461,7 @@
         <v>32</v>
       </c>
       <c r="AH74" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="AK74" s="91">
@@ -13512,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="M75" s="98" t="s">
@@ -13526,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="Q75" s="84"/>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="88">
-        <f ca="1">ROUND((G75*60*H75)*1.2,0)+L75*K75+P75*O75+T75*S75+X75*W75</f>
+        <f>ROUND((G75*60*H75)*1.2,0)+L75*K75+P75*O75+T75*S75+X75*W75</f>
         <v>516</v>
       </c>
       <c r="Z75" s="89">
@@ -13555,7 +13555,7 @@
         <v>109</v>
       </c>
       <c r="AA75" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>286</v>
       </c>
       <c r="AB75" s="81">
@@ -13577,7 +13577,7 @@
         <v>33</v>
       </c>
       <c r="AH75" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="AK75" s="91">
@@ -13628,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>624</v>
       </c>
       <c r="M76" s="84" t="s">
@@ -13642,7 +13642,7 @@
         <v>3</v>
       </c>
       <c r="P76" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="Q76" s="84"/>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="88">
-        <f ca="1">ROUND((G76*60*H76)*1.25,0)+L76*K76+P76*O76+T76*S76+X76*W76</f>
+        <f>ROUND((G76*60*H76)*1.25,0)+L76*K76+P76*O76+T76*S76+X76*W76</f>
         <v>1272</v>
       </c>
       <c r="Z76" s="89">
@@ -13671,7 +13671,7 @@
         <v>183</v>
       </c>
       <c r="AA76" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>452</v>
       </c>
       <c r="AB76" s="81">
@@ -13693,7 +13693,7 @@
         <v>23</v>
       </c>
       <c r="AH76" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="AK76" s="91">
@@ -13744,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="M77" s="84"/>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="Y77" s="88">
-        <f ca="1">ROUND((G77*60*H77)*1.1,0)+L77*K77+P77*O77+T77*S77+X77*W77</f>
+        <f>ROUND((G77*60*H77)*1.1,0)+L77*K77+P77*O77+T77*S77+X77*W77</f>
         <v>302</v>
       </c>
       <c r="Z77" s="89">
@@ -13783,7 +13783,7 @@
         <v>56</v>
       </c>
       <c r="AA77" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>113</v>
       </c>
       <c r="AB77" s="81">
@@ -13805,7 +13805,7 @@
         <v>16</v>
       </c>
       <c r="AH77" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="AK77" s="91">
@@ -13856,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="M78" s="84" t="s">
@@ -13870,7 +13870,7 @@
         <v>1</v>
       </c>
       <c r="P78" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="Q78" s="84"/>
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="88">
-        <f ca="1">ROUND((G78*60*H78)*1.1,0)+L78*K78+P78*O78+T78*S78+X78*W78</f>
+        <f>ROUND((G78*60*H78)*1.1,0)+L78*K78+P78*O78+T78*S78+X78*W78</f>
         <v>477</v>
       </c>
       <c r="Z78" s="89">
@@ -13899,7 +13899,7 @@
         <v>69</v>
       </c>
       <c r="AA78" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>162</v>
       </c>
       <c r="AB78" s="81">
@@ -13921,7 +13921,7 @@
         <v>36</v>
       </c>
       <c r="AH78" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="AK78" s="91">
@@ -13986,7 +13986,7 @@
         <v>1</v>
       </c>
       <c r="P79" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="Q79" s="84"/>
@@ -14007,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="88">
-        <f ca="1">ROUND((G79*60*H79)*1.1,0)+L79*K79+P79*O79+T79*S79+X79*W79</f>
+        <f>ROUND((G79*60*H79)*1.1,0)+L79*K79+P79*O79+T79*S79+X79*W79</f>
         <v>235</v>
       </c>
       <c r="Z79" s="89">
@@ -14015,7 +14015,7 @@
         <v>44</v>
       </c>
       <c r="AA79" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="AB79" s="81">
@@ -14037,7 +14037,7 @@
         <v>38</v>
       </c>
       <c r="AH79" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="AK79" s="91">
@@ -14088,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="M80" s="98" t="s">
@@ -14102,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="Q80" s="84"/>
@@ -14123,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="88">
-        <f ca="1">ROUND((G80*60*H80)*1.15,0)+L80*K80+P80*O80+T80*S80+X80*W80</f>
+        <f>ROUND((G80*60*H80)*1.15,0)+L80*K80+P80*O80+T80*S80+X80*W80</f>
         <v>571</v>
       </c>
       <c r="Z80" s="89">
@@ -14131,7 +14131,7 @@
         <v>104</v>
       </c>
       <c r="AA80" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>249</v>
       </c>
       <c r="AB80" s="81">
@@ -14153,7 +14153,7 @@
         <v>39</v>
       </c>
       <c r="AH80" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="AK80" s="91">
@@ -14204,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="M81" s="98" t="s">
@@ -14218,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="P81" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="Q81" s="84"/>
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="88">
-        <f ca="1">ROUND((G81*60*H81)*1.2,0)+L81*K81+P81*O81+T81*S81+X81*W81</f>
+        <f>ROUND((G81*60*H81)*1.2,0)+L81*K81+P81*O81+T81*S81+X81*W81</f>
         <v>592</v>
       </c>
       <c r="Z81" s="89">
@@ -14247,7 +14247,7 @@
         <v>130</v>
       </c>
       <c r="AA81" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>298</v>
       </c>
       <c r="AB81" s="81">
@@ -14269,7 +14269,7 @@
         <v>43</v>
       </c>
       <c r="AH81" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="AK81" s="91">
@@ -14320,7 +14320,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="M82" s="84" t="s">
@@ -14334,7 +14334,7 @@
         <v>2</v>
       </c>
       <c r="P82" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="Q82" s="84" t="s">
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
       <c r="T82" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>255</v>
       </c>
       <c r="U82" s="84"/>
@@ -14359,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="Y82" s="88">
-        <f ca="1">ROUND((G82*60*H82)*1.15,0)+L82*K82+P82*O82+T82*S82+X82*W82</f>
+        <f>ROUND((G82*60*H82)*1.15,0)+L82*K82+P82*O82+T82*S82+X82*W82</f>
         <v>1047</v>
       </c>
       <c r="Z82" s="89">
@@ -14367,7 +14367,7 @@
         <v>151</v>
       </c>
       <c r="AA82" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>299</v>
       </c>
       <c r="AB82" s="81">
@@ -14389,7 +14389,7 @@
         <v>50</v>
       </c>
       <c r="AH82" s="82">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="AK82" s="91">
@@ -14440,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>267</v>
       </c>
       <c r="M83" s="98" t="s">
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="P83" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>990</v>
       </c>
       <c r="Q83" s="98" t="s">
@@ -14468,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="T83" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
       <c r="U83" s="84"/>
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="88">
-        <f ca="1">ROUND((G83*60*H83)*1.25,0)+L83*K83+P83*O83+T83*S83+X83*W83</f>
+        <f>ROUND((G83*60*H83)*1.25,0)+L83*K83+P83*O83+T83*S83+X83*W83</f>
         <v>1555</v>
       </c>
       <c r="Z83" s="89">
@@ -14487,7 +14487,7 @@
         <v>101</v>
       </c>
       <c r="AA83" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>434</v>
       </c>
       <c r="AB83" s="81">
@@ -14509,7 +14509,7 @@
         <v>43</v>
       </c>
       <c r="AH83" s="82">
-        <f t="shared" ref="AH83:AH88" ca="1" si="27">VLOOKUP(AE83,$B$2:$AA$88,26,FALSE)</f>
+        <f t="shared" ref="AH83:AH88" si="27">VLOOKUP(AE83,$B$2:$AA$88,26,FALSE)</f>
         <v>113</v>
       </c>
       <c r="AK83" s="91">
@@ -14560,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>694</v>
       </c>
       <c r="M84" s="98" t="s">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>331</v>
       </c>
       <c r="Q84" s="84"/>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="88">
-        <f ca="1">ROUND((G84*60*H84)*1.2,0)+L84*K84+P84*O84+T84*S84+X84*W84</f>
+        <f>ROUND((G84*60*H84)*1.2,0)+L84*K84+P84*O84+T84*S84+X84*W84</f>
         <v>1116</v>
       </c>
       <c r="Z84" s="89">
@@ -14603,7 +14603,7 @@
         <v>112</v>
       </c>
       <c r="AA84" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>336</v>
       </c>
       <c r="AB84" s="81">
@@ -14625,7 +14625,7 @@
         <v>50</v>
       </c>
       <c r="AH84" s="82">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>162</v>
       </c>
       <c r="AK84" s="91">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>592</v>
       </c>
       <c r="M85" s="103" t="s">
@@ -14690,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="77">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>571</v>
       </c>
       <c r="Q85" s="98" t="s">
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="T85" s="77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>302</v>
       </c>
       <c r="U85" s="84"/>
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="88">
-        <f ca="1">ROUND((G85*60*H85)*1.35,0)+L85*K85+P85*O85+T85*S85+X85*W85</f>
+        <f>ROUND((G85*60*H85)*1.35,0)+L85*K85+P85*O85+T85*S85+X85*W85</f>
         <v>1622</v>
       </c>
       <c r="Z85" s="89">
@@ -14723,7 +14723,7 @@
         <v>169</v>
       </c>
       <c r="AA85" s="90">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="15"/>
         <v>829</v>
       </c>
       <c r="AB85" s="81">
@@ -14745,7 +14745,7 @@
         <v>35</v>
       </c>
       <c r="AH85" s="82">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>93</v>
       </c>
       <c r="AK85" s="91">
@@ -14796,7 +14796,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="77">
-        <f t="shared" ref="L86:L88" ca="1" si="29">VLOOKUP(I86,$C$1:$Y$88,23,FALSE)*K86</f>
+        <f t="shared" ref="L86:L88" si="29">VLOOKUP(I86,$C$1:$Y$88,23,FALSE)*K86</f>
         <v>302</v>
       </c>
       <c r="M86" s="121" t="s">
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="77">
-        <f t="shared" ref="P86:P88" ca="1" si="31">IF(M86="","0",VLOOKUP($M86,$C$1:$Y$88,23,FALSE)*$O86)</f>
+        <f t="shared" ref="P86:P88" si="31">IF(M86="","0",VLOOKUP($M86,$C$1:$Y$88,23,FALSE)*$O86)</f>
         <v>1272</v>
       </c>
       <c r="Q86" s="98" t="s">
@@ -14824,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="T86" s="77">
-        <f t="shared" ref="T86:T88" ca="1" si="33">IF(Q86="","0",VLOOKUP($Q86,$C$1:$Y$88,23,FALSE)*$S86)</f>
+        <f t="shared" ref="T86:T88" si="33">IF(Q86="","0",VLOOKUP($Q86,$C$1:$Y$88,23,FALSE)*$S86)</f>
         <v>477</v>
       </c>
       <c r="U86" s="84"/>
@@ -14835,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="88">
-        <f ca="1">ROUND((G86*60*H86)*1.35,0)+L86*K86+P86*O86+T86*S86+X86*W86</f>
+        <f>ROUND((G86*60*H86)*1.35,0)+L86*K86+P86*O86+T86*S86+X86*W86</f>
         <v>2380</v>
       </c>
       <c r="Z86" s="89">
@@ -14843,7 +14843,7 @@
         <v>281</v>
       </c>
       <c r="AA86" s="90">
-        <f t="shared" ref="AA86:AA88" ca="1" si="34">Z86+IF(I86="","0",VLOOKUP(I86,$C$2:$AA$88,25,FALSE)*K86)+IF(M86="","0",VLOOKUP(M86,$C$2:$AA$88,25,FALSE)*O86)+IF(Q86="","0",VLOOKUP(Q86,$C$2:$AA$88,25,FALSE)*S86)+IF(U86="","0",VLOOKUP(U86,$C$2:$AA$88,25,FALSE)*W86)</f>
+        <f t="shared" ref="AA86:AA88" si="34">Z86+IF(I86="","0",VLOOKUP(I86,$C$2:$AA$88,25,FALSE)*K86)+IF(M86="","0",VLOOKUP(M86,$C$2:$AA$88,25,FALSE)*O86)+IF(Q86="","0",VLOOKUP(Q86,$C$2:$AA$88,25,FALSE)*S86)+IF(U86="","0",VLOOKUP(U86,$C$2:$AA$88,25,FALSE)*W86)</f>
         <v>1008</v>
       </c>
       <c r="AB86" s="81">
@@ -14865,7 +14865,7 @@
         <v>44</v>
       </c>
       <c r="AH86" s="82">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>249</v>
       </c>
       <c r="AK86" s="91">
@@ -14916,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="77">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>556</v>
       </c>
       <c r="M87" s="98" t="s">
@@ -14930,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="77">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>306</v>
       </c>
       <c r="Q87" s="98" t="s">
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="T87" s="77">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" si="33"/>
         <v>198</v>
       </c>
       <c r="U87" s="84"/>
@@ -14955,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="Y87" s="88">
-        <f ca="1">ROUND((G87*60*H87)*1.25,0)+L87*K87+P87*O87+T87*S87+X87*W87</f>
+        <f>ROUND((G87*60*H87)*1.25,0)+L87*K87+P87*O87+T87*S87+X87*W87</f>
         <v>1223</v>
       </c>
       <c r="Z87" s="89">
@@ -14963,7 +14963,7 @@
         <v>136</v>
       </c>
       <c r="AA87" s="90">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>489</v>
       </c>
       <c r="AB87" s="81">
@@ -14985,7 +14985,7 @@
         <v>49</v>
       </c>
       <c r="AH87" s="82">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>298</v>
       </c>
       <c r="AK87" s="91">
@@ -15036,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="77">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" si="29"/>
         <v>624</v>
       </c>
       <c r="M88" s="98" t="s">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="P88" s="77">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" si="31"/>
         <v>267</v>
       </c>
       <c r="Q88" s="84"/>
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="88">
-        <f ca="1">ROUND((G88*60*H88)*1.3,0)+L88*K88+P88*O88+T88*S88+X88*W88</f>
+        <f>ROUND((G88*60*H88)*1.3,0)+L88*K88+P88*O88+T88*S88+X88*W88</f>
         <v>1147</v>
       </c>
       <c r="Z88" s="89">
@@ -15079,7 +15079,7 @@
         <v>202</v>
       </c>
       <c r="AA88" s="90">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" si="34"/>
         <v>512</v>
       </c>
       <c r="AB88" s="81">
@@ -15101,7 +15101,7 @@
         <v>51</v>
       </c>
       <c r="AH88" s="82">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" si="27"/>
         <v>299</v>
       </c>
       <c r="AK88" s="91">

--- a/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">生成道具_3_produceItem!$A$6:$M$29</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -926,204 +926,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2003_1,2005_1</t>
-  </si>
-  <si>
-    <t>2003_3</t>
-  </si>
-  <si>
-    <t>2003_2,2005_2,2010_1</t>
-  </si>
-  <si>
-    <t>2005_2,2003_2,2021_1</t>
-  </si>
-  <si>
-    <t>2005_2,2018_1,2021_1</t>
-  </si>
-  <si>
-    <t>2018_2,2004_1</t>
-  </si>
-  <si>
-    <t>2005_1,2003_1,2002_2</t>
-  </si>
-  <si>
-    <t>2014_1,2032_2</t>
-  </si>
-  <si>
-    <t>2014_2,2027_1,2001_2</t>
-  </si>
-  <si>
-    <t>2014_1,2034_1</t>
-  </si>
-  <si>
-    <t>2014_2,2048_1,2052_1</t>
-  </si>
-  <si>
-    <t>2014_1,2002_2,2052_1</t>
-  </si>
-  <si>
-    <t>2015_2,2014_2,2027_1</t>
-  </si>
-  <si>
-    <t>2024_1</t>
-  </si>
-  <si>
-    <t>2024_2</t>
-  </si>
-  <si>
-    <t>2036_2,2041_2</t>
-  </si>
-  <si>
-    <t>2036_1,2041_1</t>
-  </si>
-  <si>
-    <t>2025_1,2059_1</t>
-  </si>
-  <si>
-    <t>2077_1,2023_3</t>
-  </si>
-  <si>
-    <t>2042_1,2037_1</t>
-  </si>
-  <si>
-    <t>2038_1,2040_1,2069_1</t>
-  </si>
-  <si>
-    <t>2077_1,2038_1</t>
-  </si>
-  <si>
-    <t>2070_1,2074_1,2025_1</t>
-  </si>
-  <si>
-    <t>2076_1,2080_1,2084_1</t>
-  </si>
-  <si>
-    <t>2085_1,2081_1,2076_1</t>
-  </si>
-  <si>
-    <t>2014_2,2045_1</t>
-  </si>
-  <si>
-    <t>2014_1,2028_1,2052_1</t>
-  </si>
-  <si>
-    <t>2014_1,2048_1</t>
-  </si>
-  <si>
-    <t>2015_1,2028_1,2009_2</t>
-  </si>
-  <si>
-    <t>2015_1,2034_1,2052_1</t>
-  </si>
-  <si>
-    <t>2015_1,2008_1,2053_1</t>
-  </si>
-  <si>
-    <t>2009_2,2062_2</t>
-  </si>
-  <si>
-    <t>2021_1,2029_1,2045_1</t>
-  </si>
-  <si>
-    <t>2009_2,2034_1</t>
-  </si>
-  <si>
-    <t>2053_1,2008_1</t>
-  </si>
-  <si>
-    <t>2008_1,2063_1,2068_1</t>
-  </si>
-  <si>
-    <t>2001_2</t>
-  </si>
-  <si>
-    <t>2003_2</t>
-  </si>
-  <si>
-    <t>2001_3,2007_1</t>
-  </si>
-  <si>
-    <t>2001_2,2003_2,2018_1</t>
-  </si>
-  <si>
-    <t>2001_2,2003_2,2029_1</t>
-  </si>
-  <si>
-    <t>2010_2,2003_2,2021_1</t>
-  </si>
-  <si>
-    <t>2010_1,2009_1</t>
-  </si>
-  <si>
-    <t>2014_1,2010_2,2005_1</t>
-  </si>
-  <si>
-    <t>2014_2</t>
-  </si>
-  <si>
-    <t>2014_2,2010_1,2006_1</t>
-  </si>
-  <si>
-    <t>2045_1,2010_2</t>
-  </si>
-  <si>
-    <t>2014_1,2018_1</t>
-  </si>
-  <si>
-    <t>2032_2</t>
-  </si>
-  <si>
-    <t>2027_2,2052_1</t>
-  </si>
-  <si>
-    <t>2048_1,2052_1</t>
-  </si>
-  <si>
-    <t>2032_2,2052_1</t>
-  </si>
-  <si>
-    <t>2048_1,2045_1,2052_1</t>
-  </si>
-  <si>
-    <t>2036_2</t>
-  </si>
-  <si>
-    <t>2023_2</t>
-  </si>
-  <si>
-    <t>2023_1,2058_1</t>
-  </si>
-  <si>
-    <t>2058_1,2001_3</t>
-  </si>
-  <si>
-    <t>2041_1,2067_1</t>
-  </si>
-  <si>
-    <t>2067_1,2036_2</t>
-  </si>
-  <si>
-    <t>2075_1,2024_1</t>
-  </si>
-  <si>
-    <t>2075_1</t>
-  </si>
-  <si>
-    <t>2075_1,2067_1</t>
-  </si>
-  <si>
-    <t>2067_1,2023_1</t>
-  </si>
-  <si>
-    <t>2075_1,2059_1</t>
-  </si>
-  <si>
-    <t>2043_1,2059_1</t>
-  </si>
-  <si>
-    <t>2024_1,2036_2,2075_1</t>
-  </si>
-  <si>
     <t>解锁</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1160,9 +962,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2013_1,2021_1,2045_1,2006_1</t>
-  </si>
-  <si>
     <t>职业女装</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1176,19 +975,221 @@
   <si>
     <t>职业女装</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_31</t>
+  </si>
+  <si>
+    <t>1_32</t>
+  </si>
+  <si>
+    <t>1_33</t>
+  </si>
+  <si>
+    <t>1_34</t>
+  </si>
+  <si>
+    <t>1_35</t>
+  </si>
+  <si>
+    <t>1_36</t>
+  </si>
+  <si>
+    <t>1_37</t>
+  </si>
+  <si>
+    <t>1_38</t>
+  </si>
+  <si>
+    <t>1_39</t>
+  </si>
+  <si>
+    <t>1_40</t>
+  </si>
+  <si>
+    <t>1_41</t>
+  </si>
+  <si>
+    <t>1_42</t>
+  </si>
+  <si>
+    <t>1_43</t>
+  </si>
+  <si>
+    <t>1_44</t>
+  </si>
+  <si>
+    <t>1_45</t>
+  </si>
+  <si>
+    <t>1_46</t>
+  </si>
+  <si>
+    <t>1_47</t>
+  </si>
+  <si>
+    <t>1_48</t>
+  </si>
+  <si>
+    <t>1_49</t>
+  </si>
+  <si>
+    <t>1_50</t>
+  </si>
+  <si>
+    <t>1_51</t>
+  </si>
+  <si>
+    <t>1_52</t>
+  </si>
+  <si>
+    <t>1_53</t>
+  </si>
+  <si>
+    <t>1_54</t>
+  </si>
+  <si>
+    <t>1_55</t>
+  </si>
+  <si>
+    <t>1_56</t>
+  </si>
+  <si>
+    <t>1_57</t>
+  </si>
+  <si>
+    <t>1_58</t>
+  </si>
+  <si>
+    <t>1_59</t>
+  </si>
+  <si>
+    <t>1_60</t>
+  </si>
+  <si>
+    <t>1_61</t>
+  </si>
+  <si>
+    <t>1_62</t>
+  </si>
+  <si>
+    <t>1_63</t>
+  </si>
+  <si>
+    <t>1_64</t>
+  </si>
+  <si>
+    <t>1_65</t>
+  </si>
+  <si>
+    <t>1_66</t>
+  </si>
+  <si>
+    <t>1_67</t>
+  </si>
+  <si>
+    <t>1_68</t>
+  </si>
+  <si>
+    <t>1_69</t>
+  </si>
+  <si>
+    <t>1_70</t>
+  </si>
+  <si>
+    <t>1_71</t>
+  </si>
+  <si>
+    <t>1_72</t>
+  </si>
+  <si>
+    <t>1_73</t>
+  </si>
+  <si>
+    <t>1_74</t>
+  </si>
+  <si>
+    <t>1_75</t>
+  </si>
+  <si>
+    <t>1_76</t>
+  </si>
+  <si>
+    <t>1_77</t>
+  </si>
+  <si>
+    <t>1_78</t>
+  </si>
+  <si>
+    <t>1_79</t>
+  </si>
+  <si>
+    <t>1_80</t>
+  </si>
+  <si>
+    <t>1_81</t>
+  </si>
+  <si>
+    <t>1_82</t>
+  </si>
+  <si>
+    <t>1_83</t>
+  </si>
+  <si>
+    <t>1_84</t>
+  </si>
+  <si>
+    <t>1_85</t>
+  </si>
+  <si>
+    <t>1_86</t>
+  </si>
+  <si>
+    <t>1_87</t>
+  </si>
+  <si>
+    <t>1_88</t>
+  </si>
+  <si>
+    <t>1_89</t>
+  </si>
+  <si>
+    <t>1_90</t>
+  </si>
+  <si>
+    <t>1_91</t>
+  </si>
+  <si>
+    <t>1_92</t>
+  </si>
+  <si>
+    <t>1_93</t>
+  </si>
+  <si>
+    <t>1_94</t>
+  </si>
+  <si>
+    <t>1_95</t>
+  </si>
+  <si>
+    <t>1_96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2455,7 +2456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2487,9 +2488,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2521,6 +2523,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2696,17 +2699,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
     <col min="2" max="3" width="17.625" style="1" customWidth="1"/>
@@ -2719,7 +2722,7 @@
     <col min="11" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2871,12 +2874,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>15000001</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>15000002</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>15000003</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>15000004</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>15000005</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="K11" s="3">
         <v>60</v>
@@ -3096,7 +3099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>15000006</v>
       </c>
@@ -3124,8 +3127,8 @@
       <c r="I12" s="15">
         <v>5</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>253</v>
+      <c r="J12" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="K12" s="3">
         <v>19</v>
@@ -3134,7 +3137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>15000007</v>
       </c>
@@ -3162,8 +3165,8 @@
       <c r="I13" s="15">
         <v>5</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>255</v>
+      <c r="J13" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="K13" s="3">
         <v>80</v>
@@ -3172,7 +3175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>15000008</v>
       </c>
@@ -3200,8 +3203,8 @@
       <c r="I14" s="15">
         <v>5</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>259</v>
+      <c r="J14" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="K14" s="3">
         <v>87</v>
@@ -3210,7 +3213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>15000009</v>
       </c>
@@ -3238,8 +3241,8 @@
       <c r="I15" s="15">
         <v>5</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>256</v>
+      <c r="J15" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="K15" s="3">
         <v>78</v>
@@ -3248,7 +3251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15000010</v>
       </c>
@@ -3276,8 +3279,8 @@
       <c r="I16" s="15">
         <v>5</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>257</v>
+      <c r="J16" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="K16" s="3">
         <v>90</v>
@@ -3286,7 +3289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1">
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>15000011</v>
       </c>
@@ -3314,8 +3317,8 @@
       <c r="I17" s="15">
         <v>5</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>258</v>
+      <c r="J17" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="K17" s="3">
         <v>174</v>
@@ -3324,7 +3327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="59" customFormat="1">
+    <row r="18" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="55">
         <v>15000012</v>
       </c>
@@ -3352,8 +3355,8 @@
       <c r="I18" s="58">
         <v>5</v>
       </c>
-      <c r="J18" s="57" t="s">
-        <v>261</v>
+      <c r="J18" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="K18" s="62">
         <v>142</v>
@@ -3362,7 +3365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="59" customFormat="1">
+    <row r="19" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="55">
         <v>15000013</v>
       </c>
@@ -3390,8 +3393,8 @@
       <c r="I19" s="58">
         <v>5</v>
       </c>
-      <c r="J19" s="57" t="s">
-        <v>260</v>
+      <c r="J19" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="K19" s="62">
         <v>317</v>
@@ -3400,7 +3403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="59" customFormat="1">
+    <row r="20" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="55">
         <v>15000014</v>
       </c>
@@ -3428,8 +3431,8 @@
       <c r="I20" s="57">
         <v>5</v>
       </c>
-      <c r="J20" s="57" t="s">
-        <v>265</v>
+      <c r="J20" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="K20" s="62">
         <v>503</v>
@@ -3438,7 +3441,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="59" customFormat="1">
+    <row r="21" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="55">
         <v>15000015</v>
       </c>
@@ -3466,8 +3469,8 @@
       <c r="I21" s="57">
         <v>5</v>
       </c>
-      <c r="J21" s="57" t="s">
-        <v>263</v>
+      <c r="J21" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="K21" s="62">
         <v>269</v>
@@ -3476,7 +3479,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="59" customFormat="1">
+    <row r="22" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="55">
         <v>15000016</v>
       </c>
@@ -3504,8 +3507,8 @@
       <c r="I22" s="57">
         <v>5</v>
       </c>
-      <c r="J22" s="57" t="s">
-        <v>264</v>
+      <c r="J22" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="K22" s="62">
         <v>171</v>
@@ -3514,7 +3517,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="59" customFormat="1">
+    <row r="23" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="55">
         <v>15000017</v>
       </c>
@@ -3542,8 +3545,8 @@
       <c r="I23" s="57">
         <v>5</v>
       </c>
-      <c r="J23" s="57" t="s">
-        <v>262</v>
+      <c r="J23" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="K23" s="62">
         <v>354</v>
@@ -3552,7 +3555,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="54" customFormat="1">
+    <row r="24" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50">
         <v>15000019</v>
       </c>
@@ -3580,8 +3583,8 @@
       <c r="I24" s="52">
         <v>5</v>
       </c>
-      <c r="J24" s="52" t="s">
-        <v>266</v>
+      <c r="J24" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="K24" s="63">
         <v>247</v>
@@ -3590,7 +3593,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="54" customFormat="1">
+    <row r="25" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="53">
         <v>15000020</v>
       </c>
@@ -3618,8 +3621,8 @@
       <c r="I25" s="52">
         <v>5</v>
       </c>
-      <c r="J25" s="52" t="s">
-        <v>269</v>
+      <c r="J25" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="K25" s="63">
         <v>201</v>
@@ -3628,7 +3631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="54" customFormat="1">
+    <row r="26" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50">
         <v>15000021</v>
       </c>
@@ -3656,8 +3659,8 @@
       <c r="I26" s="52">
         <v>5</v>
       </c>
-      <c r="J26" s="52" t="s">
-        <v>267</v>
+      <c r="J26" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="K26" s="63">
         <v>910</v>
@@ -3666,7 +3669,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="54" customFormat="1">
+    <row r="27" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="53">
         <v>15000022</v>
       </c>
@@ -3694,8 +3697,8 @@
       <c r="I27" s="52">
         <v>5</v>
       </c>
-      <c r="J27" s="52" t="s">
-        <v>268</v>
+      <c r="J27" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="K27" s="63">
         <v>694</v>
@@ -3704,7 +3707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="54" customFormat="1">
+    <row r="28" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="50">
         <v>15000023</v>
       </c>
@@ -3732,8 +3735,8 @@
       <c r="I28" s="52">
         <v>5</v>
       </c>
-      <c r="J28" s="52" t="s">
-        <v>270</v>
+      <c r="J28" s="13" t="s">
+        <v>283</v>
       </c>
       <c r="K28" s="63">
         <v>516</v>
@@ -3742,7 +3745,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="54" customFormat="1">
+    <row r="29" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="53">
         <v>15000024</v>
       </c>
@@ -3770,8 +3773,8 @@
       <c r="I29" s="52">
         <v>5</v>
       </c>
-      <c r="J29" s="52" t="s">
-        <v>271</v>
+      <c r="J29" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="K29" s="63">
         <v>1252</v>
@@ -3780,7 +3783,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="6" customFormat="1">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60">
         <v>15000026</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>2071</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="D30" s="5">
         <v>10010161</v>
@@ -3808,8 +3811,8 @@
       <c r="I30" s="17">
         <v>5</v>
       </c>
-      <c r="J30" s="17" t="s">
-        <v>273</v>
+      <c r="J30" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="K30" s="6">
         <v>1455</v>
@@ -3818,7 +3821,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="6" customFormat="1">
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60">
         <v>15000027</v>
       </c>
@@ -3846,8 +3849,8 @@
       <c r="I31" s="17">
         <v>5</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>272</v>
+      <c r="J31" s="13" t="s">
+        <v>286</v>
       </c>
       <c r="K31" s="6">
         <v>1116</v>
@@ -3856,7 +3859,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="6" customFormat="1">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60">
         <v>15000028</v>
       </c>
@@ -3884,8 +3887,8 @@
       <c r="I32" s="17">
         <v>5</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>277</v>
+      <c r="J32" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="K32" s="6">
         <v>1622</v>
@@ -3894,7 +3897,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="6" customFormat="1">
+    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60">
         <v>15000029</v>
       </c>
@@ -3922,8 +3925,8 @@
       <c r="I33" s="17">
         <v>5</v>
       </c>
-      <c r="J33" s="17" t="s">
-        <v>275</v>
+      <c r="J33" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="K33" s="6">
         <v>1223</v>
@@ -3932,7 +3935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="6" customFormat="1">
+    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60">
         <v>15000030</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>2082</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="D34" s="5">
         <v>10010161</v>
@@ -3960,8 +3963,8 @@
       <c r="I34" s="17">
         <v>5</v>
       </c>
-      <c r="J34" s="17" t="s">
-        <v>274</v>
+      <c r="J34" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="K34" s="6">
         <v>1107</v>
@@ -3970,7 +3973,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="6" customFormat="1">
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60">
         <v>15000031</v>
       </c>
@@ -3998,8 +4001,8 @@
       <c r="I35" s="17">
         <v>5</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>276</v>
+      <c r="J35" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="K35" s="6">
         <v>2360</v>
@@ -4008,7 +4011,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="8" customFormat="1">
+    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>15000033</v>
       </c>
@@ -4036,8 +4039,8 @@
       <c r="I36" s="10">
         <v>5</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>278</v>
+      <c r="J36" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="K36" s="8">
         <v>130</v>
@@ -4046,7 +4049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="8" customFormat="1">
+    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>15000034</v>
       </c>
@@ -4074,8 +4077,8 @@
       <c r="I37" s="10">
         <v>5</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>280</v>
+      <c r="J37" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="K37" s="8">
         <v>153</v>
@@ -4084,7 +4087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="8" customFormat="1">
+    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>15000035</v>
       </c>
@@ -4112,8 +4115,8 @@
       <c r="I38" s="10">
         <v>5</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>282</v>
+      <c r="J38" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="K38" s="8">
         <v>459</v>
@@ -4122,7 +4125,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="8" customFormat="1">
+    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>15000036</v>
       </c>
@@ -4150,8 +4153,8 @@
       <c r="I39" s="10">
         <v>5</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>279</v>
+      <c r="J39" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="K39" s="8">
         <v>352</v>
@@ -4160,7 +4163,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="8" customFormat="1">
+    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11">
         <v>15000037</v>
       </c>
@@ -4188,8 +4191,8 @@
       <c r="I40" s="10">
         <v>5</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>281</v>
+      <c r="J40" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="K40" s="8">
         <v>645</v>
@@ -4198,7 +4201,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="8" customFormat="1">
+    <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11">
         <v>15000038</v>
       </c>
@@ -4226,8 +4229,8 @@
       <c r="I41" s="10">
         <v>5</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>283</v>
+      <c r="J41" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="K41" s="8">
         <v>621</v>
@@ -4236,7 +4239,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="9" customFormat="1">
+    <row r="42" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <v>15000040</v>
       </c>
@@ -4264,8 +4267,8 @@
       <c r="I42" s="14">
         <v>5</v>
       </c>
-      <c r="J42" s="14" t="s">
-        <v>285</v>
+      <c r="J42" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="K42" s="9">
         <v>102</v>
@@ -4274,7 +4277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="9" customFormat="1">
+    <row r="43" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>15000041</v>
       </c>
@@ -4302,8 +4305,8 @@
       <c r="I43" s="14">
         <v>5</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>286</v>
+      <c r="J43" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="K43" s="9">
         <v>621</v>
@@ -4312,7 +4315,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="9" customFormat="1">
+    <row r="44" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>15000042</v>
       </c>
@@ -4340,8 +4343,8 @@
       <c r="I44" s="14">
         <v>5</v>
       </c>
-      <c r="J44" s="14" t="s">
-        <v>284</v>
+      <c r="J44" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="K44" s="9">
         <v>965</v>
@@ -4350,7 +4353,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="9" customFormat="1">
+    <row r="45" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>15000043</v>
       </c>
@@ -4378,8 +4381,8 @@
       <c r="I45" s="14">
         <v>5</v>
       </c>
-      <c r="J45" s="14" t="s">
-        <v>287</v>
+      <c r="J45" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="K45" s="9">
         <v>564</v>
@@ -4388,7 +4391,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="9" customFormat="1">
+    <row r="46" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <v>15000044</v>
       </c>
@@ -4416,8 +4419,8 @@
       <c r="I46" s="14">
         <v>5</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>288</v>
+      <c r="J46" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="K46" s="9">
         <v>597</v>
@@ -4426,7 +4429,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="33" customFormat="1">
+    <row r="47" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="49">
         <v>15000047</v>
       </c>
@@ -4454,8 +4457,8 @@
       <c r="I47" s="24">
         <v>5</v>
       </c>
-      <c r="J47" s="24" t="s">
-        <v>289</v>
+      <c r="J47" s="13" t="s">
+        <v>302</v>
       </c>
       <c r="K47" s="64">
         <v>16</v>
@@ -4464,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="33" customFormat="1">
+    <row r="48" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="49">
         <v>15000048</v>
       </c>
@@ -4492,8 +4495,8 @@
       <c r="I48" s="24">
         <v>5</v>
       </c>
-      <c r="J48" s="24" t="s">
-        <v>290</v>
+      <c r="J48" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="K48" s="64">
         <v>30</v>
@@ -4502,7 +4505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="33" customFormat="1">
+    <row r="49" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="49">
         <v>15000049</v>
       </c>
@@ -4530,8 +4533,8 @@
       <c r="I49" s="24">
         <v>5</v>
       </c>
-      <c r="J49" s="24" t="s">
-        <v>291</v>
+      <c r="J49" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="K49" s="64">
         <v>37</v>
@@ -4540,7 +4543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="33" customFormat="1">
+    <row r="50" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="49">
         <v>15000050</v>
       </c>
@@ -4568,8 +4571,8 @@
       <c r="I50" s="24">
         <v>5</v>
       </c>
-      <c r="J50" s="24" t="s">
-        <v>292</v>
+      <c r="J50" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="K50" s="64">
         <v>76</v>
@@ -4578,7 +4581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="33" customFormat="1">
+    <row r="51" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="49">
         <v>15000051</v>
       </c>
@@ -4606,8 +4609,8 @@
       <c r="I51" s="24">
         <v>5</v>
       </c>
-      <c r="J51" s="24" t="s">
-        <v>293</v>
+      <c r="J51" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="K51" s="64">
         <v>68</v>
@@ -4616,7 +4619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="33" customFormat="1">
+    <row r="52" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="49">
         <v>15000052</v>
       </c>
@@ -4644,8 +4647,8 @@
       <c r="I52" s="24">
         <v>5</v>
       </c>
-      <c r="J52" s="24" t="s">
-        <v>294</v>
+      <c r="J52" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="K52" s="64">
         <v>111</v>
@@ -4654,7 +4657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="36" customFormat="1">
+    <row r="53" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="47">
         <v>15000054</v>
       </c>
@@ -4682,8 +4685,8 @@
       <c r="I53" s="25">
         <v>5</v>
       </c>
-      <c r="J53" s="25" t="s">
-        <v>295</v>
+      <c r="J53" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="K53" s="65">
         <v>79</v>
@@ -4692,7 +4695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="36" customFormat="1">
+    <row r="54" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="48">
         <v>15000055</v>
       </c>
@@ -4720,8 +4723,8 @@
       <c r="I54" s="25">
         <v>5</v>
       </c>
-      <c r="J54" s="25" t="s">
-        <v>297</v>
+      <c r="J54" s="13" t="s">
+        <v>309</v>
       </c>
       <c r="K54" s="65">
         <v>84</v>
@@ -4730,7 +4733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="36" customFormat="1">
+    <row r="55" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="47">
         <v>15000056</v>
       </c>
@@ -4758,8 +4761,8 @@
       <c r="I55" s="25">
         <v>5</v>
       </c>
-      <c r="J55" s="25" t="s">
-        <v>296</v>
+      <c r="J55" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="K55" s="65">
         <v>91</v>
@@ -4768,7 +4771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="36" customFormat="1">
+    <row r="56" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="48">
         <v>15000057</v>
       </c>
@@ -4796,8 +4799,8 @@
       <c r="I56" s="25">
         <v>5</v>
       </c>
-      <c r="J56" s="25" t="s">
-        <v>298</v>
+      <c r="J56" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="K56" s="65">
         <v>120</v>
@@ -4806,7 +4809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="36" customFormat="1">
+    <row r="57" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="47">
         <v>15000058</v>
       </c>
@@ -4834,8 +4837,8 @@
       <c r="I57" s="25">
         <v>5</v>
       </c>
-      <c r="J57" s="25" t="s">
-        <v>299</v>
+      <c r="J57" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="K57" s="65">
         <v>100</v>
@@ -4844,7 +4847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="36" customFormat="1">
+    <row r="58" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="48">
         <v>15000059</v>
       </c>
@@ -4872,8 +4875,8 @@
       <c r="I58" s="25">
         <v>5</v>
       </c>
-      <c r="J58" s="25" t="s">
-        <v>300</v>
+      <c r="J58" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="K58" s="65">
         <v>69</v>
@@ -4882,7 +4885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="36" customFormat="1">
+    <row r="59" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="47">
         <v>15000060</v>
       </c>
@@ -4910,8 +4913,8 @@
       <c r="I59" s="25">
         <v>5</v>
       </c>
-      <c r="J59" s="25" t="s">
-        <v>328</v>
+      <c r="J59" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="K59" s="65">
         <v>183</v>
@@ -4920,7 +4923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="39" customFormat="1">
+    <row r="60" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="46">
         <v>15000061</v>
       </c>
@@ -4948,8 +4951,8 @@
       <c r="I60" s="28">
         <v>5</v>
       </c>
-      <c r="J60" s="28" t="s">
-        <v>301</v>
+      <c r="J60" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="K60" s="66">
         <v>297</v>
@@ -4958,7 +4961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="39" customFormat="1">
+    <row r="61" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="46">
         <v>15000062</v>
       </c>
@@ -4986,8 +4989,8 @@
       <c r="I61" s="28">
         <v>5</v>
       </c>
-      <c r="J61" s="28" t="s">
-        <v>302</v>
+      <c r="J61" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="K61" s="66">
         <v>244</v>
@@ -4996,7 +4999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="39" customFormat="1">
+    <row r="62" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="46">
         <v>15000063</v>
       </c>
@@ -5024,8 +5027,8 @@
       <c r="I62" s="28">
         <v>5</v>
       </c>
-      <c r="J62" s="28" t="s">
-        <v>303</v>
+      <c r="J62" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="K62" s="66">
         <v>173</v>
@@ -5034,7 +5037,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="39" customFormat="1">
+    <row r="63" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="46">
         <v>15000064</v>
       </c>
@@ -5062,8 +5065,8 @@
       <c r="I63" s="28">
         <v>5</v>
       </c>
-      <c r="J63" s="28" t="s">
-        <v>304</v>
+      <c r="J63" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="K63" s="66">
         <v>383</v>
@@ -5072,7 +5075,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="39" customFormat="1">
+    <row r="64" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="46">
         <v>15000065</v>
       </c>
@@ -5100,8 +5103,8 @@
       <c r="I64" s="28">
         <v>5</v>
       </c>
-      <c r="J64" s="28" t="s">
-        <v>305</v>
+      <c r="J64" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="K64" s="66">
         <v>203</v>
@@ -5110,7 +5113,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="42" customFormat="1">
+    <row r="65" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <v>15000068</v>
       </c>
@@ -5138,8 +5141,8 @@
       <c r="I65" s="26">
         <v>5</v>
       </c>
-      <c r="J65" s="26" t="s">
-        <v>307</v>
+      <c r="J65" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="K65" s="42">
         <v>211</v>
@@ -5148,7 +5151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="42" customFormat="1">
+    <row r="66" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
         <v>15000069</v>
       </c>
@@ -5176,8 +5179,8 @@
       <c r="I66" s="26">
         <v>5</v>
       </c>
-      <c r="J66" s="26" t="s">
-        <v>306</v>
+      <c r="J66" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="K66" s="42">
         <v>331</v>
@@ -5186,7 +5189,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="42" customFormat="1">
+    <row r="67" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
         <v>15000070</v>
       </c>
@@ -5214,8 +5217,8 @@
       <c r="I67" s="26">
         <v>5</v>
       </c>
-      <c r="J67" s="26" t="s">
-        <v>308</v>
+      <c r="J67" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="K67" s="42">
         <v>198</v>
@@ -5224,7 +5227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="42" customFormat="1">
+    <row r="68" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
         <v>15000071</v>
       </c>
@@ -5252,8 +5255,8 @@
       <c r="I68" s="26">
         <v>5</v>
       </c>
-      <c r="J68" s="26" t="s">
-        <v>309</v>
+      <c r="J68" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="K68" s="42">
         <v>200</v>
@@ -5262,7 +5265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="42" customFormat="1">
+    <row r="69" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <v>15000072</v>
       </c>
@@ -5290,8 +5293,8 @@
       <c r="I69" s="26">
         <v>5</v>
       </c>
-      <c r="J69" s="26" t="s">
-        <v>310</v>
+      <c r="J69" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="K69" s="42">
         <v>306</v>
@@ -5300,7 +5303,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="42" customFormat="1">
+    <row r="70" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
         <v>15000073</v>
       </c>
@@ -5328,8 +5331,8 @@
       <c r="I70" s="26">
         <v>5</v>
       </c>
-      <c r="J70" s="26" t="s">
-        <v>311</v>
+      <c r="J70" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="K70" s="42">
         <v>556</v>
@@ -5338,7 +5341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="42" customFormat="1">
+    <row r="71" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13">
         <v>15000074</v>
       </c>
@@ -5366,8 +5369,8 @@
       <c r="I71" s="26">
         <v>5</v>
       </c>
-      <c r="J71" s="26" t="s">
-        <v>312</v>
+      <c r="J71" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="K71" s="42">
         <v>604</v>
@@ -5376,7 +5379,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="45" customFormat="1">
+    <row r="72" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11">
         <v>15000075</v>
       </c>
@@ -5404,8 +5407,8 @@
       <c r="I72" s="27">
         <v>5</v>
       </c>
-      <c r="J72" s="27" t="s">
-        <v>315</v>
+      <c r="J72" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="K72" s="45">
         <v>235</v>
@@ -5414,7 +5417,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="45" customFormat="1">
+    <row r="73" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11">
         <v>15000076</v>
       </c>
@@ -5442,8 +5445,8 @@
       <c r="I73" s="27">
         <v>5</v>
       </c>
-      <c r="J73" s="27" t="s">
-        <v>313</v>
+      <c r="J73" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="K73" s="45">
         <v>302</v>
@@ -5452,7 +5455,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="45" customFormat="1">
+    <row r="74" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11">
         <v>15000077</v>
       </c>
@@ -5480,8 +5483,8 @@
       <c r="I74" s="27">
         <v>5</v>
       </c>
-      <c r="J74" s="27" t="s">
-        <v>316</v>
+      <c r="J74" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="K74" s="45">
         <v>571</v>
@@ -5490,7 +5493,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="45" customFormat="1">
+    <row r="75" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11">
         <v>15000078</v>
       </c>
@@ -5518,8 +5521,8 @@
       <c r="I75" s="27">
         <v>5</v>
       </c>
-      <c r="J75" s="27" t="s">
-        <v>317</v>
+      <c r="J75" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="K75" s="45">
         <v>592</v>
@@ -5528,7 +5531,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="45" customFormat="1">
+    <row r="76" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11">
         <v>15000079</v>
       </c>
@@ -5556,8 +5559,8 @@
       <c r="I76" s="27">
         <v>5</v>
       </c>
-      <c r="J76" s="27" t="s">
-        <v>314</v>
+      <c r="J76" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="K76" s="45">
         <v>477</v>
@@ -5566,7 +5569,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="45" customFormat="1">
+    <row r="77" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11">
         <v>15000080</v>
       </c>
@@ -5594,8 +5597,8 @@
       <c r="I77" s="27">
         <v>5</v>
       </c>
-      <c r="J77" s="27" t="s">
-        <v>318</v>
+      <c r="J77" s="13" t="s">
+        <v>332</v>
       </c>
       <c r="K77" s="45">
         <v>1027</v>
@@ -5620,14 +5623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="82" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="82" customWidth="1"/>
@@ -5644,7 +5647,7 @@
     <col min="36" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="75" t="s">
         <v>117</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="75">
         <v>1</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="75">
         <v>3</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="75">
         <v>4</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="75">
         <v>7</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" s="75">
         <v>10</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="75">
         <v>12</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="75">
         <v>16</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="75">
         <v>19</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="75">
         <v>22</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="75">
         <v>25</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="75">
         <v>28</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="75">
         <v>32</v>
       </c>
@@ -6621,7 +6624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="75">
         <v>35</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="75">
         <v>38</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="75">
         <v>42</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="75">
         <v>46</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="75">
         <v>4</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="75">
         <v>10</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="75">
         <v>14</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="75">
         <v>18</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="75">
         <v>5</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="75">
         <v>7</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="75">
         <v>9</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="75">
         <v>13</v>
       </c>
@@ -7738,7 +7741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="75">
         <v>15</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="75">
         <v>18</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="75">
         <v>21</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="75">
         <v>2</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="75">
         <v>5</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="75">
         <v>8</v>
       </c>
@@ -8436,7 +8439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A32" s="75">
         <v>12</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="75">
         <v>15</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="75">
         <v>18</v>
       </c>
@@ -8796,7 +8799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A35" s="75">
         <v>7</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A36" s="75">
         <v>10</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="75">
         <v>10</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="75">
         <v>14</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="75">
         <v>19</v>
       </c>
@@ -9381,7 +9384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A40" s="75">
         <v>20</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A41" s="75">
         <v>25</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A42" s="75">
         <v>23</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A43" s="75">
         <v>35</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A44" s="75">
         <v>36</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A45" s="75">
         <v>41</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A46" s="75">
         <v>39</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A47" s="75">
         <v>23</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A48" s="75">
         <v>38</v>
       </c>
@@ -10440,7 +10443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A49" s="75">
         <v>22</v>
       </c>
@@ -10560,7 +10563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A50" s="75">
         <v>26</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A51" s="75">
         <v>35</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A52" s="75">
         <v>33</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A53" s="75">
         <v>32</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A54" s="75">
         <v>24</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A55" s="75">
         <v>37</v>
       </c>
@@ -11268,7 +11271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A56" s="75">
         <v>35</v>
       </c>
@@ -11388,7 +11391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A57" s="75">
         <v>39</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A58" s="75">
         <v>46</v>
       </c>
@@ -11628,7 +11631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A59" s="75">
         <v>28</v>
       </c>
@@ -11748,7 +11751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A60" s="75">
         <v>34</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A61" s="75">
         <v>40</v>
       </c>
@@ -11980,7 +11983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A62" s="75">
         <v>45</v>
       </c>
@@ -12096,7 +12099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A63" s="75">
         <v>51</v>
       </c>
@@ -12216,7 +12219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A64" s="75">
         <v>38</v>
       </c>
@@ -12328,7 +12331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A65" s="75">
         <v>37</v>
       </c>
@@ -12440,7 +12443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A66" s="75">
         <v>43</v>
       </c>
@@ -12556,7 +12559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A67" s="75">
         <v>44</v>
       </c>
@@ -12672,7 +12675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A68" s="75">
         <v>46</v>
       </c>
@@ -12788,7 +12791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A69" s="75">
         <v>48</v>
       </c>
@@ -12904,7 +12907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A70" s="75">
         <v>50</v>
       </c>
@@ -13020,7 +13023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A71" s="75">
         <v>38</v>
       </c>
@@ -13132,7 +13135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A72" s="75">
         <v>47</v>
       </c>
@@ -13244,7 +13247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A73" s="75">
         <v>30</v>
       </c>
@@ -13360,7 +13363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A74" s="75">
         <v>49</v>
       </c>
@@ -13476,7 +13479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A75" s="75">
         <v>52</v>
       </c>
@@ -13592,7 +13595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A76" s="75">
         <v>55</v>
       </c>
@@ -13708,7 +13711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A77" s="75">
         <v>50</v>
       </c>
@@ -13820,7 +13823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A78" s="75">
         <v>53</v>
       </c>
@@ -13936,7 +13939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A79" s="75">
         <v>42</v>
       </c>
@@ -14052,7 +14055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A80" s="75">
         <v>51</v>
       </c>
@@ -14168,7 +14171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A81" s="75">
         <v>54</v>
       </c>
@@ -14284,7 +14287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A82" s="75">
         <v>57</v>
       </c>
@@ -14404,7 +14407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A83" s="75">
         <v>58</v>
       </c>
@@ -14524,7 +14527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A84" s="75">
         <v>59</v>
       </c>
@@ -14640,7 +14643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A85" s="75">
         <v>60</v>
       </c>
@@ -14760,7 +14763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A86" s="75">
         <v>65</v>
       </c>
@@ -14880,7 +14883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A87" s="75">
         <v>61</v>
       </c>
@@ -15000,7 +15003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A88" s="75">
         <v>63</v>
       </c>
@@ -15144,14 +15147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS88"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="82" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="82" customWidth="1"/>
@@ -15180,7 +15183,7 @@
     <col min="37" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A1" s="75" t="s">
         <v>117</v>
       </c>
@@ -15269,28 +15272,28 @@
         <v>133</v>
       </c>
       <c r="AL1" s="128" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="AM1" s="128" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="AN1" s="128" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="AO1" s="128" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="AP1" s="128" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="AQ1" s="128" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="AR1" s="128" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A2" s="75">
         <v>1</v>
       </c>
@@ -15388,7 +15391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A3" s="75">
         <v>3</v>
       </c>
@@ -15486,7 +15489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A4" s="75">
         <v>4</v>
       </c>
@@ -15584,7 +15587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5" s="75">
         <v>7</v>
       </c>
@@ -15682,7 +15685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A6" s="75">
         <v>10</v>
       </c>
@@ -15780,7 +15783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7" s="75">
         <v>12</v>
       </c>
@@ -15878,7 +15881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8" s="75">
         <v>16</v>
       </c>
@@ -15976,7 +15979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9" s="75">
         <v>19</v>
       </c>
@@ -16074,7 +16077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A10" s="75">
         <v>22</v>
       </c>
@@ -16172,7 +16175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A11" s="75">
         <v>25</v>
       </c>
@@ -16270,7 +16273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A12" s="75">
         <v>28</v>
       </c>
@@ -16368,7 +16371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A13" s="75">
         <v>32</v>
       </c>
@@ -16466,7 +16469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A14" s="75">
         <v>35</v>
       </c>
@@ -16564,7 +16567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A15" s="75">
         <v>38</v>
       </c>
@@ -16662,7 +16665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A16" s="75">
         <v>42</v>
       </c>
@@ -16760,7 +16763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A17" s="75">
         <v>46</v>
       </c>
@@ -16858,7 +16861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A18" s="75">
         <v>4</v>
       </c>
@@ -16973,7 +16976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A19" s="75">
         <v>10</v>
       </c>
@@ -17088,7 +17091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A20" s="75">
         <v>14</v>
       </c>
@@ -17203,7 +17206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A21" s="75">
         <v>18</v>
       </c>
@@ -17318,7 +17321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A22" s="75">
         <v>5</v>
       </c>
@@ -17470,7 +17473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A23" s="75">
         <v>7</v>
       </c>
@@ -17619,7 +17622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A24" s="75">
         <v>9</v>
       </c>
@@ -17775,7 +17778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A25" s="75">
         <v>13</v>
       </c>
@@ -17931,7 +17934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A26" s="75">
         <v>15</v>
       </c>
@@ -18087,7 +18090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A27" s="75">
         <v>18</v>
       </c>
@@ -18239,7 +18242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A28" s="75">
         <v>21</v>
       </c>
@@ -18395,7 +18398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A29" s="75">
         <v>2</v>
       </c>
@@ -18544,7 +18547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A30" s="75">
         <v>5</v>
       </c>
@@ -18693,7 +18696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A31" s="75">
         <v>8</v>
       </c>
@@ -18845,7 +18848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A32" s="75">
         <v>12</v>
       </c>
@@ -19001,7 +19004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A33" s="75">
         <v>15</v>
       </c>
@@ -19157,7 +19160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A34" s="75">
         <v>18</v>
       </c>
@@ -19313,7 +19316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A35" s="75">
         <v>7</v>
       </c>
@@ -19465,7 +19468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A36" s="75">
         <v>10</v>
       </c>
@@ -19621,7 +19624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A37" s="75">
         <v>10</v>
       </c>
@@ -19770,7 +19773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A38" s="75">
         <v>14</v>
       </c>
@@ -19926,7 +19929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A39" s="75">
         <v>19</v>
       </c>
@@ -20078,7 +20081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A40" s="75">
         <v>20</v>
       </c>
@@ -20230,7 +20233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A41" s="75">
         <v>25</v>
       </c>
@@ -20256,7 +20259,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="I41" s="84" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="J41" s="84" t="str">
         <f t="shared" si="16"/>
@@ -20393,7 +20396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A42" s="75">
         <v>23</v>
       </c>
@@ -20541,7 +20544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A43" s="75">
         <v>35</v>
       </c>
@@ -20693,7 +20696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A44" s="75">
         <v>36</v>
       </c>
@@ -20845,7 +20848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A45" s="75">
         <v>41</v>
       </c>
@@ -20997,7 +21000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A46" s="75">
         <v>39</v>
       </c>
@@ -21153,7 +21156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A47" s="75">
         <v>23</v>
       </c>
@@ -21305,7 +21308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A48" s="75">
         <v>38</v>
       </c>
@@ -21461,7 +21464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A49" s="75">
         <v>22</v>
       </c>
@@ -21617,7 +21620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A50" s="75">
         <v>26</v>
       </c>
@@ -21769,7 +21772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A51" s="75">
         <v>35</v>
       </c>
@@ -21925,7 +21928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A52" s="75">
         <v>33</v>
       </c>
@@ -22081,7 +22084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A53" s="75">
         <v>32</v>
       </c>
@@ -22233,7 +22236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A54" s="75">
         <v>24</v>
       </c>
@@ -22385,7 +22388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A55" s="75">
         <v>37</v>
       </c>
@@ -22541,7 +22544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A56" s="75">
         <v>35</v>
       </c>
@@ -22697,7 +22700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A57" s="75">
         <v>39</v>
       </c>
@@ -22853,7 +22856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A58" s="75">
         <v>46</v>
       </c>
@@ -23009,7 +23012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A59" s="75">
         <v>28</v>
       </c>
@@ -23165,7 +23168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A60" s="75">
         <v>34</v>
       </c>
@@ -23317,7 +23320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A61" s="75">
         <v>40</v>
       </c>
@@ -23469,7 +23472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A62" s="75">
         <v>45</v>
       </c>
@@ -23621,7 +23624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A63" s="75">
         <v>51</v>
       </c>
@@ -23777,7 +23780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A64" s="75">
         <v>38</v>
       </c>
@@ -23860,7 +23863,7 @@
         <v>1800</v>
       </c>
       <c r="AC64" s="118" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="AD64" s="82" t="str">
         <f t="shared" si="23"/>
@@ -23925,7 +23928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A65" s="75">
         <v>37</v>
       </c>
@@ -24008,7 +24011,7 @@
         <v>1200</v>
       </c>
       <c r="AC65" s="118" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="AD65" s="82" t="str">
         <f t="shared" si="23"/>
@@ -24073,7 +24076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A66" s="75">
         <v>43</v>
       </c>
@@ -24160,7 +24163,7 @@
         <v>3600</v>
       </c>
       <c r="AC66" s="118" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="AD66" s="82" t="str">
         <f t="shared" si="23"/>
@@ -24225,7 +24228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A67" s="75">
         <v>44</v>
       </c>
@@ -24312,7 +24315,7 @@
         <v>5400</v>
       </c>
       <c r="AC67" s="118" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="AD67" s="82" t="str">
         <f t="shared" si="23"/>
@@ -24377,7 +24380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A68" s="75">
         <v>46</v>
       </c>
@@ -24464,7 +24467,7 @@
         <v>6000</v>
       </c>
       <c r="AC68" s="118" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="AD68" s="82" t="str">
         <f t="shared" si="23"/>
@@ -24529,7 +24532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A69" s="75">
         <v>48</v>
       </c>
@@ -24616,7 +24619,7 @@
         <v>7200</v>
       </c>
       <c r="AC69" s="118" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="AD69" s="82" t="str">
         <f t="shared" si="23"/>
@@ -24681,7 +24684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A70" s="75">
         <v>50</v>
       </c>
@@ -24768,7 +24771,7 @@
         <v>9000</v>
       </c>
       <c r="AC70" s="118" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="AD70" s="82" t="str">
         <f t="shared" si="23"/>
@@ -24833,7 +24836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A71" s="75">
         <v>38</v>
       </c>
@@ -24981,7 +24984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A72" s="75">
         <v>47</v>
       </c>
@@ -25129,7 +25132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:45">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A73" s="75">
         <v>30</v>
       </c>
@@ -25281,7 +25284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:45">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A74" s="75">
         <v>49</v>
       </c>
@@ -25433,7 +25436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:45">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A75" s="75">
         <v>52</v>
       </c>
@@ -25585,7 +25588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:45">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A76" s="75">
         <v>55</v>
       </c>
@@ -25737,7 +25740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:45">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A77" s="75">
         <v>50</v>
       </c>
@@ -25885,7 +25888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:45">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A78" s="75">
         <v>53</v>
       </c>
@@ -26037,7 +26040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:45">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A79" s="75">
         <v>42</v>
       </c>
@@ -26189,7 +26192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:45">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A80" s="75">
         <v>51</v>
       </c>
@@ -26341,7 +26344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:45">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A81" s="75">
         <v>54</v>
       </c>
@@ -26493,7 +26496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:45">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A82" s="75">
         <v>57</v>
       </c>
@@ -26649,7 +26652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:45">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A83" s="75">
         <v>58</v>
       </c>
@@ -26657,7 +26660,7 @@
         <v>2071</v>
       </c>
       <c r="C83" s="102" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="D83" s="83">
         <v>2071</v>
@@ -26805,7 +26808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:45">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A84" s="75">
         <v>59</v>
       </c>
@@ -26957,7 +26960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:45">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A85" s="75">
         <v>60</v>
       </c>
@@ -27113,7 +27116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:45">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A86" s="75">
         <v>65</v>
       </c>
@@ -27269,7 +27272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:45">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A87" s="75">
         <v>61</v>
       </c>
@@ -27425,7 +27428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:45">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A88" s="75">
         <v>63</v>
       </c>
@@ -27433,7 +27436,7 @@
         <v>2082</v>
       </c>
       <c r="C88" s="121" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="D88" s="83">
         <v>2082</v>
@@ -27595,20 +27598,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="11">
         <v>2007</v>
       </c>
@@ -27625,7 +27628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>2021</v>
       </c>
@@ -27642,7 +27645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2029</v>
       </c>
@@ -27659,7 +27662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>2045</v>
       </c>
@@ -27676,7 +27679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>2002</v>
       </c>
@@ -27693,7 +27696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>2004</v>
       </c>
@@ -27710,7 +27713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>2008</v>
       </c>
@@ -27727,7 +27730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>2019</v>
       </c>
@@ -27744,7 +27747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>2030</v>
       </c>
@@ -27761,7 +27764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>2047</v>
       </c>
@@ -27778,7 +27781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>2006</v>
       </c>
@@ -27795,7 +27798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>2009</v>
       </c>
@@ -27812,7 +27815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>2012</v>
       </c>
@@ -27829,7 +27832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>2017</v>
       </c>
@@ -27846,7 +27849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>2022</v>
       </c>
@@ -27863,7 +27866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>2026</v>
       </c>
@@ -27880,7 +27883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>2031</v>
       </c>
@@ -27897,7 +27900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>2011</v>
       </c>
@@ -27914,7 +27917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>2013</v>
       </c>
@@ -27931,7 +27934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>2015</v>
       </c>
@@ -27948,7 +27951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>2016</v>
       </c>
@@ -27965,7 +27968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>2050</v>
       </c>
@@ -27982,7 +27985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>2020</v>
       </c>
@@ -27999,7 +28002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>2054</v>
       </c>
@@ -28016,7 +28019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>2037</v>
       </c>
@@ -28033,7 +28036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>2024</v>
       </c>
@@ -28050,7 +28053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>2025</v>
       </c>
@@ -28067,7 +28070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>2059</v>
       </c>
@@ -28084,7 +28087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>2074</v>
       </c>
@@ -28101,7 +28104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>2070</v>
       </c>
@@ -28118,7 +28121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>2077</v>
       </c>
@@ -28135,7 +28138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
         <v>2046</v>
       </c>
@@ -28152,7 +28155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
         <v>2057</v>
       </c>
@@ -28169,7 +28172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
         <v>2062</v>
       </c>
@@ -28186,7 +28189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
         <v>2064</v>
       </c>
@@ -28203,7 +28206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>2072</v>
       </c>
@@ -28220,7 +28223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
         <v>2078</v>
       </c>
@@ -28237,7 +28240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="56">
         <v>2033</v>
       </c>
@@ -28254,7 +28257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="56">
         <v>2035</v>
       </c>
@@ -28271,7 +28274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="56">
         <v>2039</v>
       </c>
@@ -28288,7 +28291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="57">
         <v>2051</v>
       </c>
@@ -28305,7 +28308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="57">
         <v>2056</v>
       </c>
@@ -28322,7 +28325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="56">
         <v>2065</v>
       </c>
@@ -28339,7 +28342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="51">
         <v>2038</v>
       </c>
@@ -28356,7 +28359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="52">
         <v>2040</v>
       </c>
@@ -28373,7 +28376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="52">
         <v>2042</v>
       </c>
@@ -28390,7 +28393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="52">
         <v>2043</v>
       </c>
@@ -28407,7 +28410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="52">
         <v>2061</v>
       </c>
@@ -28424,7 +28427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="52">
         <v>2080</v>
       </c>
@@ -28441,7 +28444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="28">
         <v>2034</v>
       </c>
@@ -28458,7 +28461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="28">
         <v>2028</v>
       </c>
@@ -28475,7 +28478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="28">
         <v>2063</v>
       </c>
@@ -28492,7 +28495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="28">
         <v>2053</v>
       </c>
@@ -28509,7 +28512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="28">
         <v>2068</v>
       </c>
@@ -28526,7 +28529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="20">
         <v>2049</v>
       </c>
@@ -28543,7 +28546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="20">
         <v>2055</v>
       </c>
@@ -28560,7 +28563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="20">
         <v>2060</v>
       </c>
@@ -28577,7 +28580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="20">
         <v>2066</v>
       </c>
@@ -28594,7 +28597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="20">
         <v>2073</v>
       </c>
@@ -28611,7 +28614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>2076</v>
       </c>
@@ -28628,7 +28631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>2084</v>
       </c>
@@ -28645,7 +28648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
         <v>2069</v>
       </c>
@@ -28662,7 +28665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
         <v>2081</v>
       </c>
@@ -28679,7 +28682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>2085</v>
       </c>
@@ -28696,7 +28699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>2079</v>
       </c>
@@ -28713,7 +28716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="16">
         <v>2044</v>
       </c>
@@ -28730,7 +28733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="16">
         <v>2071</v>
       </c>
@@ -28747,7 +28750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="16">
         <v>2082</v>
       </c>
@@ -28764,7 +28767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="16">
         <v>2083</v>
       </c>
@@ -28781,7 +28784,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="16">
         <v>2086</v>
       </c>
@@ -28798,7 +28801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="16">
         <v>2087</v>
       </c>
@@ -28828,16 +28831,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="75" t="s">
         <v>119</v>
       </c>
@@ -28848,7 +28851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="84" t="s">
         <v>134</v>
       </c>
@@ -28859,7 +28862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="93" t="s">
         <v>7</v>
       </c>
@@ -28870,7 +28873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="98" t="s">
         <v>49</v>
       </c>
@@ -28881,7 +28884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="84" t="s">
         <v>136</v>
       </c>
@@ -28892,7 +28895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="84" t="s">
         <v>137</v>
       </c>
@@ -28903,7 +28906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="98" t="s">
         <v>12</v>
       </c>
@@ -28914,7 +28917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="98" t="s">
         <v>50</v>
       </c>
@@ -28925,7 +28928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="s">
         <v>11</v>
       </c>
@@ -28936,7 +28939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="84" t="s">
         <v>138</v>
       </c>
@@ -28947,7 +28950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
         <v>51</v>
       </c>
@@ -28958,7 +28961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="102" t="s">
         <v>167</v>
       </c>
@@ -28969,7 +28972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="93" t="s">
         <v>8</v>
       </c>
@@ -28980,7 +28983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="s">
         <v>13</v>
       </c>
@@ -28991,7 +28994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="84" t="s">
         <v>139</v>
       </c>
@@ -29002,7 +29005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="s">
         <v>55</v>
       </c>
@@ -29013,7 +29016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="103" t="s">
         <v>17</v>
       </c>
@@ -29024,7 +29027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="s">
         <v>171</v>
       </c>
@@ -29035,7 +29038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="84" t="s">
         <v>140</v>
       </c>
@@ -29046,7 +29049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="93" t="s">
         <v>9</v>
       </c>
@@ -29057,7 +29060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="98" t="s">
         <v>14</v>
       </c>
@@ -29068,7 +29071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
         <v>52</v>
       </c>
@@ -29079,7 +29082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="98" t="s">
         <v>156</v>
       </c>
@@ -29090,7 +29093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="84" t="s">
         <v>141</v>
       </c>
@@ -29101,7 +29104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="102" t="s">
         <v>175</v>
       </c>
@@ -29112,7 +29115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="93" t="s">
         <v>10</v>
       </c>
@@ -29123,7 +29126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="98" t="s">
         <v>53</v>
       </c>
@@ -29134,7 +29137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="98" t="s">
         <v>195</v>
       </c>
@@ -29145,7 +29148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="102" t="s">
         <v>160</v>
       </c>
@@ -29156,7 +29159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="84" t="s">
         <v>142</v>
       </c>
@@ -29167,7 +29170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="98" t="s">
         <v>56</v>
       </c>
@@ -29178,7 +29181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="98" t="s">
         <v>54</v>
       </c>
@@ -29189,7 +29192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="84" t="s">
         <v>143</v>
       </c>
@@ -29200,7 +29203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="98" t="s">
         <v>177</v>
       </c>
@@ -29211,7 +29214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="84" t="s">
         <v>144</v>
       </c>
@@ -29222,7 +29225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="98" t="s">
         <v>192</v>
       </c>
@@ -29233,7 +29236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="103" t="s">
         <v>57</v>
       </c>
@@ -29244,7 +29247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="98" t="s">
         <v>181</v>
       </c>
@@ -29255,7 +29258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="98" t="s">
         <v>188</v>
       </c>
@@ -29266,7 +29269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="84" t="s">
         <v>145</v>
       </c>
@@ -29277,7 +29280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="98" t="s">
         <v>18</v>
       </c>
@@ -29288,7 +29291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="84" t="s">
         <v>146</v>
       </c>
@@ -29299,7 +29302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="s">
         <v>212</v>
       </c>
@@ -29310,7 +29313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="s">
         <v>40</v>
       </c>
@@ -29321,7 +29324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="84" t="s">
         <v>147</v>
       </c>
@@ -29332,7 +29335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="103" t="s">
         <v>23</v>
       </c>
@@ -29343,7 +29346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="s">
         <v>58</v>
       </c>
@@ -29354,7 +29357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="84" t="s">
         <v>149</v>
       </c>
@@ -29365,7 +29368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="103" t="s">
         <v>42</v>
       </c>
@@ -29376,7 +29379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="98" t="s">
         <v>27</v>
       </c>
@@ -29387,7 +29390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="98" t="s">
         <v>21</v>
       </c>
@@ -29398,7 +29401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="98" t="s">
         <v>197</v>
       </c>
@@ -29409,7 +29412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="98" t="s">
         <v>45</v>
       </c>
@@ -29420,7 +29423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="84" t="s">
         <v>150</v>
       </c>
@@ -29431,7 +29434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="98" t="s">
         <v>59</v>
       </c>
@@ -29442,7 +29445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="98" t="s">
         <v>199</v>
       </c>
@@ -29453,7 +29456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="98" t="s">
         <v>214</v>
       </c>
@@ -29464,7 +29467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="103" t="s">
         <v>22</v>
       </c>
@@ -29475,7 +29478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="102" t="s">
         <v>39</v>
       </c>
@@ -29486,7 +29489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="103" t="s">
         <v>46</v>
       </c>
@@ -29497,7 +29500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="98" t="s">
         <v>60</v>
       </c>
@@ -29508,7 +29511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="84" t="s">
         <v>151</v>
       </c>
@@ -29519,7 +29522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="103" t="s">
         <v>44</v>
       </c>
@@ -29530,7 +29533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="98" t="s">
         <v>203</v>
       </c>
@@ -29541,7 +29544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="98" t="s">
         <v>225</v>
       </c>
@@ -29552,7 +29555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="98" t="s">
         <v>215</v>
       </c>
@@ -29563,7 +29566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="103" t="s">
         <v>41</v>
       </c>
@@ -29574,7 +29577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="98" t="s">
         <v>221</v>
       </c>
@@ -29585,7 +29588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="102" t="s">
         <v>185</v>
       </c>
@@ -29596,7 +29599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="98" t="s">
         <v>61</v>
       </c>
@@ -29607,7 +29610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="103" t="s">
         <v>216</v>
       </c>
@@ -29618,7 +29621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="103" t="s">
         <v>43</v>
       </c>
@@ -29629,7 +29632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="103" t="s">
         <v>47</v>
       </c>
@@ -29640,7 +29643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="98" t="s">
         <v>206</v>
       </c>
@@ -29651,7 +29654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="103" t="s">
         <v>226</v>
       </c>
@@ -29662,7 +29665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="103" t="s">
         <v>230</v>
       </c>
@@ -29673,7 +29676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="98" t="s">
         <v>62</v>
       </c>
@@ -29684,7 +29687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="98" t="s">
         <v>223</v>
       </c>
@@ -29695,7 +29698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="102" t="s">
         <v>208</v>
       </c>
@@ -29706,7 +29709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="121" t="s">
         <v>219</v>
       </c>
@@ -29717,7 +29720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="102" t="s">
         <v>234</v>
       </c>
@@ -29728,7 +29731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="103" t="s">
         <v>48</v>
       </c>
@@ -29739,7 +29742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="103" t="s">
         <v>231</v>
       </c>
@@ -29750,7 +29753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="103" t="s">
         <v>239</v>
       </c>
@@ -29761,7 +29764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="121" t="s">
         <v>242</v>
       </c>
@@ -29772,7 +29775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="103" t="s">
         <v>247</v>
       </c>
@@ -29783,7 +29786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="121" t="s">
         <v>251</v>
       </c>
@@ -29794,7 +29797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="125" t="s">
         <v>244</v>
       </c>

--- a/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="337">
   <si>
     <t>位置</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1177,6 +1177,18 @@
   </si>
   <si>
     <t>1_96</t>
+  </si>
+  <si>
+    <t>1_26</t>
+  </si>
+  <si>
+    <t>1_27</t>
+  </si>
+  <si>
+    <t>1_28</t>
+  </si>
+  <si>
+    <t>1_29</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2718,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2945,7 +2957,9 @@
       <c r="I7" s="10">
         <v>5</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="13" t="s">
+        <v>333</v>
+      </c>
       <c r="K7" s="61">
         <v>3</v>
       </c>
@@ -2981,7 +2995,9 @@
       <c r="I8" s="10">
         <v>5</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="13" t="s">
+        <v>334</v>
+      </c>
       <c r="K8" s="61">
         <v>10</v>
       </c>
@@ -3017,7 +3033,9 @@
       <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="13" t="s">
+        <v>335</v>
+      </c>
       <c r="K9" s="61">
         <v>18</v>
       </c>
@@ -3053,7 +3071,9 @@
       <c r="I10" s="10">
         <v>5</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="K10" s="61">
         <v>27</v>
       </c>

--- a/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Production.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="267">
   <si>
     <t>位置</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -979,216 +979,6 @@
   <si>
     <t>1_30</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_31</t>
-  </si>
-  <si>
-    <t>1_32</t>
-  </si>
-  <si>
-    <t>1_33</t>
-  </si>
-  <si>
-    <t>1_34</t>
-  </si>
-  <si>
-    <t>1_35</t>
-  </si>
-  <si>
-    <t>1_36</t>
-  </si>
-  <si>
-    <t>1_37</t>
-  </si>
-  <si>
-    <t>1_38</t>
-  </si>
-  <si>
-    <t>1_39</t>
-  </si>
-  <si>
-    <t>1_40</t>
-  </si>
-  <si>
-    <t>1_41</t>
-  </si>
-  <si>
-    <t>1_42</t>
-  </si>
-  <si>
-    <t>1_43</t>
-  </si>
-  <si>
-    <t>1_44</t>
-  </si>
-  <si>
-    <t>1_45</t>
-  </si>
-  <si>
-    <t>1_46</t>
-  </si>
-  <si>
-    <t>1_47</t>
-  </si>
-  <si>
-    <t>1_48</t>
-  </si>
-  <si>
-    <t>1_49</t>
-  </si>
-  <si>
-    <t>1_50</t>
-  </si>
-  <si>
-    <t>1_51</t>
-  </si>
-  <si>
-    <t>1_52</t>
-  </si>
-  <si>
-    <t>1_53</t>
-  </si>
-  <si>
-    <t>1_54</t>
-  </si>
-  <si>
-    <t>1_55</t>
-  </si>
-  <si>
-    <t>1_56</t>
-  </si>
-  <si>
-    <t>1_57</t>
-  </si>
-  <si>
-    <t>1_58</t>
-  </si>
-  <si>
-    <t>1_59</t>
-  </si>
-  <si>
-    <t>1_60</t>
-  </si>
-  <si>
-    <t>1_61</t>
-  </si>
-  <si>
-    <t>1_62</t>
-  </si>
-  <si>
-    <t>1_63</t>
-  </si>
-  <si>
-    <t>1_64</t>
-  </si>
-  <si>
-    <t>1_65</t>
-  </si>
-  <si>
-    <t>1_66</t>
-  </si>
-  <si>
-    <t>1_67</t>
-  </si>
-  <si>
-    <t>1_68</t>
-  </si>
-  <si>
-    <t>1_69</t>
-  </si>
-  <si>
-    <t>1_70</t>
-  </si>
-  <si>
-    <t>1_71</t>
-  </si>
-  <si>
-    <t>1_72</t>
-  </si>
-  <si>
-    <t>1_73</t>
-  </si>
-  <si>
-    <t>1_74</t>
-  </si>
-  <si>
-    <t>1_75</t>
-  </si>
-  <si>
-    <t>1_76</t>
-  </si>
-  <si>
-    <t>1_77</t>
-  </si>
-  <si>
-    <t>1_78</t>
-  </si>
-  <si>
-    <t>1_79</t>
-  </si>
-  <si>
-    <t>1_80</t>
-  </si>
-  <si>
-    <t>1_81</t>
-  </si>
-  <si>
-    <t>1_82</t>
-  </si>
-  <si>
-    <t>1_83</t>
-  </si>
-  <si>
-    <t>1_84</t>
-  </si>
-  <si>
-    <t>1_85</t>
-  </si>
-  <si>
-    <t>1_86</t>
-  </si>
-  <si>
-    <t>1_87</t>
-  </si>
-  <si>
-    <t>1_88</t>
-  </si>
-  <si>
-    <t>1_89</t>
-  </si>
-  <si>
-    <t>1_90</t>
-  </si>
-  <si>
-    <t>1_91</t>
-  </si>
-  <si>
-    <t>1_92</t>
-  </si>
-  <si>
-    <t>1_93</t>
-  </si>
-  <si>
-    <t>1_94</t>
-  </si>
-  <si>
-    <t>1_95</t>
-  </si>
-  <si>
-    <t>1_96</t>
-  </si>
-  <si>
-    <t>1_26</t>
-  </si>
-  <si>
-    <t>1_27</t>
-  </si>
-  <si>
-    <t>1_28</t>
-  </si>
-  <si>
-    <t>1_29</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2508,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2958,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="K7" s="61">
         <v>3</v>
@@ -2996,7 +2786,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="K8" s="61">
         <v>10</v>
@@ -3034,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="K9" s="61">
         <v>18</v>
@@ -3072,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="K10" s="61">
         <v>27</v>
@@ -3148,7 +2938,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K12" s="3">
         <v>19</v>
@@ -3186,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K13" s="3">
         <v>80</v>
@@ -3224,7 +3014,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K14" s="3">
         <v>87</v>
@@ -3262,7 +3052,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K15" s="3">
         <v>78</v>
@@ -3300,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K16" s="3">
         <v>90</v>
@@ -3338,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K17" s="3">
         <v>174</v>
@@ -3376,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K18" s="62">
         <v>142</v>
@@ -3414,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K19" s="62">
         <v>317</v>
@@ -3452,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K20" s="62">
         <v>503</v>
@@ -3490,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="K21" s="62">
         <v>269</v>
@@ -3528,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K22" s="62">
         <v>171</v>
@@ -3566,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K23" s="62">
         <v>354</v>
@@ -3604,7 +3394,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="K24" s="63">
         <v>247</v>
@@ -3642,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K25" s="63">
         <v>201</v>
@@ -3680,7 +3470,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="K26" s="63">
         <v>910</v>
@@ -3718,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="K27" s="63">
         <v>694</v>
@@ -3756,7 +3546,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="K28" s="63">
         <v>516</v>
@@ -3794,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="K29" s="63">
         <v>1252</v>
@@ -3832,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="K30" s="6">
         <v>1455</v>
@@ -3870,7 +3660,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="K31" s="6">
         <v>1116</v>
@@ -3908,7 +3698,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K32" s="6">
         <v>1622</v>
@@ -3946,7 +3736,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="K33" s="6">
         <v>1223</v>
@@ -3984,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="K34" s="6">
         <v>1107</v>
@@ -4022,7 +3812,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="K35" s="6">
         <v>2360</v>
@@ -4060,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="K36" s="8">
         <v>130</v>
@@ -4098,7 +3888,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="K37" s="8">
         <v>153</v>
@@ -4136,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="K38" s="8">
         <v>459</v>
@@ -4174,7 +3964,7 @@
         <v>5</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="K39" s="8">
         <v>352</v>
@@ -4212,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="K40" s="8">
         <v>645</v>
@@ -4250,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="K41" s="8">
         <v>621</v>
@@ -4288,7 +4078,7 @@
         <v>5</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="K42" s="9">
         <v>102</v>
@@ -4326,7 +4116,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="K43" s="9">
         <v>621</v>
@@ -4364,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K44" s="9">
         <v>965</v>
@@ -4402,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="K45" s="9">
         <v>564</v>
@@ -4440,7 +4230,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="K46" s="9">
         <v>597</v>
@@ -4478,7 +4268,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="K47" s="64">
         <v>16</v>
@@ -4516,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="K48" s="64">
         <v>30</v>
@@ -4554,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="K49" s="64">
         <v>37</v>
@@ -4592,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="K50" s="64">
         <v>76</v>
@@ -4630,7 +4420,7 @@
         <v>5</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="K51" s="64">
         <v>68</v>
@@ -4668,7 +4458,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K52" s="64">
         <v>111</v>
@@ -4706,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="K53" s="65">
         <v>79</v>
@@ -4744,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K54" s="65">
         <v>84</v>
@@ -4782,7 +4572,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="K55" s="65">
         <v>91</v>
@@ -4820,7 +4610,7 @@
         <v>5</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="K56" s="65">
         <v>120</v>
@@ -4858,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="K57" s="65">
         <v>100</v>
@@ -4896,7 +4686,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="K58" s="65">
         <v>69</v>
@@ -4934,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="K59" s="65">
         <v>183</v>
@@ -4972,7 +4762,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="K60" s="66">
         <v>297</v>
@@ -5010,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="K61" s="66">
         <v>244</v>
@@ -5048,7 +4838,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="K62" s="66">
         <v>173</v>
@@ -5086,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K63" s="66">
         <v>383</v>
@@ -5124,7 +4914,7 @@
         <v>5</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="K64" s="66">
         <v>203</v>
@@ -5162,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="K65" s="42">
         <v>211</v>
@@ -5200,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="K66" s="42">
         <v>331</v>
@@ -5238,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="K67" s="42">
         <v>198</v>
@@ -5276,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="K68" s="42">
         <v>200</v>
@@ -5314,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="K69" s="42">
         <v>306</v>
@@ -5352,7 +5142,7 @@
         <v>5</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="K70" s="42">
         <v>556</v>
@@ -5390,7 +5180,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="K71" s="42">
         <v>604</v>
@@ -5428,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="K72" s="45">
         <v>235</v>
@@ -5466,7 +5256,7 @@
         <v>5</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="K73" s="45">
         <v>302</v>
@@ -5504,7 +5294,7 @@
         <v>5</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="K74" s="45">
         <v>571</v>
@@ -5542,7 +5332,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="K75" s="45">
         <v>592</v>
@@ -5580,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="K76" s="45">
         <v>477</v>
@@ -5618,7 +5408,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="K77" s="45">
         <v>1027</v>
